--- a/data/OD_data.xlsx
+++ b/data/OD_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\streamlit_proJ\streamlit_LM_ECO2OD\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1F5774-2160-4833-A17E-C5CA277F82BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A21537-A649-4326-97D7-BC9702BFC98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25530" yWindow="9240" windowWidth="15045" windowHeight="10845" tabRatio="885" activeTab="1" xr2:uid="{C27105EB-B4F9-4EBB-BD16-1E6F61A40B3F}"/>
+    <workbookView xWindow="28680" yWindow="-4185" windowWidth="16440" windowHeight="28440" tabRatio="885" activeTab="5" xr2:uid="{C27105EB-B4F9-4EBB-BD16-1E6F61A40B3F}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Childcare_centers" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="34">
   <si>
     <t>중부1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 냉방효율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>급탕효율</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,9 +109,6 @@
   </si>
   <si>
     <t>난방효율</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 냉방효율</t>
   </si>
   <si>
     <t>급탕효율</t>
@@ -149,6 +142,10 @@
   </si>
   <si>
     <t>흡수식냉온수기효율</t>
+  </si>
+  <si>
+    <t>냉방효율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -616,7 +613,7 @@
   <dimension ref="A1:T205"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I8:I9"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -637,64 +634,64 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="S1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -13355,8 +13352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D244E0-1D63-4830-AFB3-0A4287DF9712}">
   <dimension ref="A1:S181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13394,13 +13391,13 @@
         <v>11</v>
       </c>
       <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
@@ -13415,19 +13412,19 @@
         <v>3</v>
       </c>
       <c r="O1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="R1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -24061,77 +24058,77 @@
   <dimension ref="A1:V253"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:V1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>25</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>27</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="U1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -41281,68 +41278,68 @@
   <dimension ref="A1:S181"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:S1"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="R1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -51976,68 +51973,68 @@
   <dimension ref="A1:S181"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:S1"/>
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="R1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -62670,8 +62667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC4C610-51A6-4781-B9BA-C5DDFD33D4C5}">
   <dimension ref="A1:S181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -62690,61 +62687,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="R1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">

--- a/data/OD_data.xlsx
+++ b/data/OD_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\streamlit_proJ\streamlit_LM_ECO2OD\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A21537-A649-4326-97D7-BC9702BFC98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE715CA1-E37E-4602-8586-4D8DCC718EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4185" windowWidth="16440" windowHeight="28440" tabRatio="885" activeTab="5" xr2:uid="{C27105EB-B4F9-4EBB-BD16-1E6F61A40B3F}"/>
+    <workbookView xWindow="28680" yWindow="-4185" windowWidth="16440" windowHeight="28440" tabRatio="885" xr2:uid="{C27105EB-B4F9-4EBB-BD16-1E6F61A40B3F}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Childcare_centers" sheetId="4" r:id="rId1"/>
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E796A375-C6DA-44C8-9745-E4FA394CF517}">
   <dimension ref="A1:T205"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13353,7 +13353,7 @@
   <dimension ref="A1:S181"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -41277,7 +41277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D11A16-6EE1-4ACE-95B9-A3D30D165492}">
   <dimension ref="A1:S181"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -51972,8 +51972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620B4D80-4647-4B63-9E19-0040BFC5C157}">
   <dimension ref="A1:S181"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N58" sqref="N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -62667,7 +62667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC4C610-51A6-4781-B9BA-C5DDFD33D4C5}">
   <dimension ref="A1:S181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>

--- a/data/OD_data.xlsx
+++ b/data/OD_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\streamlit_proJ\streamlit_LM_ECO2OD\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE715CA1-E37E-4602-8586-4D8DCC718EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51534EB-AD31-4214-8EDF-9B1694DC6303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4185" windowWidth="16440" windowHeight="28440" tabRatio="885" xr2:uid="{C27105EB-B4F9-4EBB-BD16-1E6F61A40B3F}"/>
+    <workbookView xWindow="28680" yWindow="-4185" windowWidth="16440" windowHeight="28440" tabRatio="885" activeTab="2" xr2:uid="{C27105EB-B4F9-4EBB-BD16-1E6F61A40B3F}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Childcare_centers" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="35">
   <si>
     <t>중부1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,10 +141,15 @@
     <t>환기</t>
   </si>
   <si>
-    <t>흡수식냉온수기효율</t>
+    <t>냉방효율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>냉방효율</t>
+    <t>흡수식냉온수기효율_난방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흡수식냉온수기효율_냉방</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E796A375-C6DA-44C8-9745-E4FA394CF517}">
   <dimension ref="A1:T205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -628,11 +633,11 @@
     <col min="11" max="11" width="14.25" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="6.75" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="5.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="5.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -658,7 +663,7 @@
         <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
         <v>22</v>
@@ -678,19 +683,19 @@
       <c r="O1" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -740,19 +745,19 @@
       <c r="O2">
         <v>0</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2">
         <v>97.836355870000006</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2">
         <v>4.0274027147960396</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2">
         <v>15.616747914541399</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2">
         <v>0</v>
       </c>
     </row>
@@ -802,19 +807,19 @@
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3">
         <v>96.166011583299607</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3">
         <v>4.0639792708077698</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3">
         <v>15.616747914541399</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3">
         <v>0</v>
       </c>
     </row>
@@ -864,19 +869,19 @@
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4">
         <v>94.496198955459107</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4">
         <v>4.1823060096181504</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4">
         <v>15.616747914541399</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4">
         <v>0</v>
       </c>
     </row>
@@ -926,19 +931,19 @@
       <c r="O5">
         <v>0</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5">
         <v>89.798342531312997</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5">
         <v>4.0947086905275398</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5">
         <v>15.616747914541399</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5">
         <v>0</v>
       </c>
     </row>
@@ -988,19 +993,19 @@
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6">
         <v>81.751853509072703</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6">
         <v>4.09224525149616</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6">
         <v>15.616747914541399</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6">
         <v>0</v>
       </c>
     </row>
@@ -1050,19 +1055,19 @@
       <c r="O7">
         <v>0</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7">
         <v>88.708885655320202</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7">
         <v>4.3184071979044498</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7">
         <v>15.616747914541399</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7">
         <v>0</v>
       </c>
     </row>
@@ -1112,19 +1117,19 @@
       <c r="O8">
         <v>0</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8">
         <v>79.611867048017501</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8">
         <v>4.6886293873270901</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8">
         <v>15.616747914541399</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8">
         <v>0</v>
       </c>
     </row>
@@ -1174,19 +1179,19 @@
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9">
         <v>93.064296287675006</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9">
         <v>4.2438262513988203</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9">
         <v>15.616747914541399</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9">
         <v>0</v>
       </c>
     </row>
@@ -1236,19 +1241,19 @@
       <c r="O10">
         <v>0</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10">
         <v>88.302206471374404</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10">
         <v>4.2706537388274297</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10">
         <v>15.616747914541399</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10">
         <v>0</v>
       </c>
     </row>
@@ -1298,19 +1303,19 @@
       <c r="O11">
         <v>0</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11">
         <v>102.79558993101899</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11">
         <v>3.15989275764802</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11">
         <v>15.616747914541399</v>
       </c>
-      <c r="T11" s="5">
+      <c r="T11">
         <v>0</v>
       </c>
     </row>
@@ -1360,19 +1365,19 @@
       <c r="O12">
         <v>0</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12">
         <v>107.41989045801201</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12">
         <v>2.3521778564735998</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12">
         <v>15.616747914541399</v>
       </c>
-      <c r="T12" s="5">
+      <c r="T12">
         <v>0</v>
       </c>
     </row>
@@ -1422,19 +1427,19 @@
       <c r="O13">
         <v>0</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13">
         <v>96.584663452089401</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13">
         <v>4.0611930598152997</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S13" s="5">
+      <c r="S13">
         <v>15.616747914541399</v>
       </c>
-      <c r="T13" s="5">
+      <c r="T13">
         <v>0</v>
       </c>
     </row>
@@ -1484,19 +1489,19 @@
       <c r="O14">
         <v>0</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14">
         <v>94.958399081014306</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14">
         <v>4.1871604158765701</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S14" s="5">
+      <c r="S14">
         <v>15.616747914541399</v>
       </c>
-      <c r="T14" s="5">
+      <c r="T14">
         <v>0</v>
       </c>
     </row>
@@ -1546,19 +1551,19 @@
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15">
         <v>90.038845609430993</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15">
         <v>4.0274027147960396</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S15" s="5">
+      <c r="S15">
         <v>15.616747914541399</v>
       </c>
-      <c r="T15" s="5">
+      <c r="T15">
         <v>0</v>
       </c>
     </row>
@@ -1608,19 +1613,19 @@
       <c r="O16">
         <v>0</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16">
         <v>83.551317072637701</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16">
         <v>4.0274027147960396</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S16" s="5">
+      <c r="S16">
         <v>15.616747914541399</v>
       </c>
-      <c r="T16" s="5">
+      <c r="T16">
         <v>0</v>
       </c>
     </row>
@@ -1670,19 +1675,19 @@
       <c r="O17">
         <v>0</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17">
         <v>96.388709719265407</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="Q17">
         <v>4.0274027147960396</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S17" s="5">
+      <c r="S17">
         <v>15.616747914541399</v>
       </c>
-      <c r="T17" s="5">
+      <c r="T17">
         <v>0</v>
       </c>
     </row>
@@ -1732,19 +1737,19 @@
       <c r="O18">
         <v>0</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P18">
         <v>95.192729385922902</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18">
         <v>4.0274027147960396</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18">
         <v>15.616747914541399</v>
       </c>
-      <c r="T18" s="5">
+      <c r="T18">
         <v>0</v>
       </c>
     </row>
@@ -1794,19 +1799,19 @@
       <c r="O19">
         <v>0</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19">
         <v>97.836355870000006</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="Q19">
         <v>3.51820213913425</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S19" s="5">
+      <c r="S19">
         <v>15.616747914541399</v>
       </c>
-      <c r="T19" s="5">
+      <c r="T19">
         <v>0</v>
       </c>
     </row>
@@ -1856,19 +1861,19 @@
       <c r="O20">
         <v>0</v>
       </c>
-      <c r="P20" s="5">
+      <c r="P20">
         <v>97.836355870000006</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="Q20">
         <v>3.1038361094139901</v>
       </c>
-      <c r="R20" s="5">
+      <c r="R20">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S20" s="5">
+      <c r="S20">
         <v>15.616747914541399</v>
       </c>
-      <c r="T20" s="5">
+      <c r="T20">
         <v>0</v>
       </c>
     </row>
@@ -1918,19 +1923,19 @@
       <c r="O21">
         <v>0</v>
       </c>
-      <c r="P21" s="5">
+      <c r="P21">
         <v>97.836355870000006</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="Q21">
         <v>4.0274027147960396</v>
       </c>
-      <c r="R21" s="5">
+      <c r="R21">
         <v>8.6033978723845408</v>
       </c>
-      <c r="S21" s="5">
+      <c r="S21">
         <v>15.616747914541399</v>
       </c>
-      <c r="T21" s="5">
+      <c r="T21">
         <v>0</v>
       </c>
     </row>
@@ -1980,19 +1985,19 @@
       <c r="O22">
         <v>0</v>
       </c>
-      <c r="P22" s="5">
+      <c r="P22">
         <v>97.836355870000006</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="Q22">
         <v>4.0274027147960396</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R22">
         <v>7.8508729664793</v>
       </c>
-      <c r="S22" s="5">
+      <c r="S22">
         <v>15.616747914541399</v>
       </c>
-      <c r="T22" s="5">
+      <c r="T22">
         <v>0</v>
       </c>
     </row>
@@ -2042,19 +2047,19 @@
       <c r="O23">
         <v>0</v>
       </c>
-      <c r="P23" s="5">
+      <c r="P23">
         <v>99.275587125437298</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="Q23">
         <v>3.7579473101936798</v>
       </c>
-      <c r="R23" s="5">
+      <c r="R23">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S23" s="5">
+      <c r="S23">
         <v>13.0139565954512</v>
       </c>
-      <c r="T23" s="5">
+      <c r="T23">
         <v>0</v>
       </c>
     </row>
@@ -2104,19 +2109,19 @@
       <c r="O24">
         <v>0</v>
       </c>
-      <c r="P24" s="5">
+      <c r="P24">
         <v>100.728123173264</v>
       </c>
-      <c r="Q24" s="5">
+      <c r="Q24">
         <v>3.49413281204381</v>
       </c>
-      <c r="R24" s="5">
+      <c r="R24">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S24" s="5">
+      <c r="S24">
         <v>10.411165276360901</v>
       </c>
-      <c r="T24" s="5">
+      <c r="T24">
         <v>0</v>
       </c>
     </row>
@@ -2166,19 +2171,19 @@
       <c r="O25">
         <v>0</v>
       </c>
-      <c r="P25" s="5">
+      <c r="P25">
         <v>88.127738636116206</v>
       </c>
-      <c r="Q25" s="5">
+      <c r="Q25">
         <v>4.13589419757397</v>
       </c>
-      <c r="R25" s="5">
+      <c r="R25">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S25" s="5">
+      <c r="S25">
         <v>15.616747914541399</v>
       </c>
-      <c r="T25" s="5">
+      <c r="T25">
         <v>0</v>
       </c>
     </row>
@@ -2228,19 +2233,19 @@
       <c r="O26">
         <v>0</v>
       </c>
-      <c r="P26" s="5">
+      <c r="P26">
         <v>79.014313751601406</v>
       </c>
-      <c r="Q26" s="5">
+      <c r="Q26">
         <v>4.3656818306924503</v>
       </c>
-      <c r="R26" s="5">
+      <c r="R26">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S26" s="5">
+      <c r="S26">
         <v>15.616747914541399</v>
       </c>
-      <c r="T26" s="5">
+      <c r="T26">
         <v>0</v>
       </c>
     </row>
@@ -2290,19 +2295,19 @@
       <c r="O27">
         <v>0</v>
       </c>
-      <c r="P27" s="5">
+      <c r="P27">
         <v>74.274210553022399</v>
       </c>
-      <c r="Q27" s="5">
+      <c r="Q27">
         <v>4.53633074909974</v>
       </c>
-      <c r="R27" s="5">
+      <c r="R27">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S27" s="5">
+      <c r="S27">
         <v>15.616747914541399</v>
       </c>
-      <c r="T27" s="5">
+      <c r="T27">
         <v>0</v>
       </c>
     </row>
@@ -2352,19 +2357,19 @@
       <c r="O28">
         <v>0</v>
       </c>
-      <c r="P28" s="5">
+      <c r="P28">
         <v>78.967145448990394</v>
       </c>
-      <c r="Q28" s="5">
+      <c r="Q28">
         <v>3.5724247977401502</v>
       </c>
-      <c r="R28" s="5">
+      <c r="R28">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S28" s="5">
+      <c r="S28">
         <v>15.616747914541399</v>
       </c>
-      <c r="T28" s="5">
+      <c r="T28">
         <v>0</v>
       </c>
     </row>
@@ -2414,19 +2419,19 @@
       <c r="O29">
         <v>0</v>
       </c>
-      <c r="P29" s="5">
+      <c r="P29">
         <v>77.707478541564598</v>
       </c>
-      <c r="Q29" s="5">
+      <c r="Q29">
         <v>3.67522144168418</v>
       </c>
-      <c r="R29" s="5">
+      <c r="R29">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S29" s="5">
+      <c r="S29">
         <v>15.616747914541399</v>
       </c>
-      <c r="T29" s="5">
+      <c r="T29">
         <v>0</v>
       </c>
     </row>
@@ -2476,19 +2481,19 @@
       <c r="O30">
         <v>0</v>
       </c>
-      <c r="P30" s="5">
+      <c r="P30">
         <v>71.555832678471504</v>
       </c>
-      <c r="Q30" s="5">
+      <c r="Q30">
         <v>3.67522144168418</v>
       </c>
-      <c r="R30" s="5">
+      <c r="R30">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S30" s="5">
+      <c r="S30">
         <v>15.616747914541399</v>
       </c>
-      <c r="T30" s="5">
+      <c r="T30">
         <v>0</v>
       </c>
     </row>
@@ -2538,19 +2543,19 @@
       <c r="O31">
         <v>0</v>
       </c>
-      <c r="P31" s="5">
+      <c r="P31">
         <v>70.3677028550796</v>
       </c>
-      <c r="Q31" s="5">
+      <c r="Q31">
         <v>3.67522144168418</v>
       </c>
-      <c r="R31" s="5">
+      <c r="R31">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S31" s="5">
+      <c r="S31">
         <v>15.616747914541399</v>
       </c>
-      <c r="T31" s="5">
+      <c r="T31">
         <v>0</v>
       </c>
     </row>
@@ -2600,19 +2605,19 @@
       <c r="O32">
         <v>0</v>
       </c>
-      <c r="P32" s="5">
+      <c r="P32">
         <v>70.3677028550796</v>
       </c>
-      <c r="Q32" s="5">
+      <c r="Q32">
         <v>3.2105485479318698</v>
       </c>
-      <c r="R32" s="5">
+      <c r="R32">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S32" s="5">
+      <c r="S32">
         <v>15.616747914541399</v>
       </c>
-      <c r="T32" s="5">
+      <c r="T32">
         <v>0</v>
       </c>
     </row>
@@ -2662,19 +2667,19 @@
       <c r="O33">
         <v>0</v>
       </c>
-      <c r="P33" s="5">
+      <c r="P33">
         <v>70.3677028550796</v>
       </c>
-      <c r="Q33" s="5">
+      <c r="Q33">
         <v>3.2105485479318698</v>
       </c>
-      <c r="R33" s="5">
+      <c r="R33">
         <v>8.6033978723845408</v>
       </c>
-      <c r="S33" s="5">
+      <c r="S33">
         <v>15.616747914541399</v>
       </c>
-      <c r="T33" s="5">
+      <c r="T33">
         <v>0</v>
       </c>
     </row>
@@ -2724,19 +2729,19 @@
       <c r="O34">
         <v>0</v>
       </c>
-      <c r="P34" s="5">
+      <c r="P34">
         <v>71.673970028522902</v>
       </c>
-      <c r="Q34" s="5">
+      <c r="Q34">
         <v>2.90530279941831</v>
       </c>
-      <c r="R34" s="5">
+      <c r="R34">
         <v>8.6033978723845408</v>
       </c>
-      <c r="S34" s="5">
+      <c r="S34">
         <v>13.0139565954512</v>
       </c>
-      <c r="T34" s="5">
+      <c r="T34">
         <v>0</v>
       </c>
     </row>
@@ -2786,19 +2791,19 @@
       <c r="O35">
         <v>0</v>
       </c>
-      <c r="P35" s="5">
+      <c r="P35">
         <v>99.275587125437298</v>
       </c>
-      <c r="Q35" s="5">
+      <c r="Q35">
         <v>3.7579473101936798</v>
       </c>
-      <c r="R35" s="5">
+      <c r="R35">
         <v>8.6033978723845408</v>
       </c>
-      <c r="S35" s="5">
+      <c r="S35">
         <v>13.0139565954512</v>
       </c>
-      <c r="T35" s="5">
+      <c r="T35">
         <v>0</v>
       </c>
     </row>
@@ -2848,19 +2853,19 @@
       <c r="O36">
         <v>0</v>
       </c>
-      <c r="P36" s="5">
+      <c r="P36">
         <v>99.275587125437298</v>
       </c>
-      <c r="Q36" s="5">
+      <c r="Q36">
         <v>3.2828150551978599</v>
       </c>
-      <c r="R36" s="5">
+      <c r="R36">
         <v>8.6033978723845408</v>
       </c>
-      <c r="S36" s="5">
+      <c r="S36">
         <v>13.0139565954512</v>
       </c>
-      <c r="T36" s="5">
+      <c r="T36">
         <v>0</v>
       </c>
     </row>
@@ -2910,19 +2915,19 @@
       <c r="O37">
         <v>0</v>
       </c>
-      <c r="P37" s="5">
+      <c r="P37">
         <v>97.810107161923398</v>
       </c>
-      <c r="Q37" s="5">
+      <c r="Q37">
         <v>3.2828150551978599</v>
       </c>
-      <c r="R37" s="5">
+      <c r="R37">
         <v>8.6033978723845408</v>
       </c>
-      <c r="S37" s="5">
+      <c r="S37">
         <v>13.0139565954512</v>
       </c>
-      <c r="T37" s="5">
+      <c r="T37">
         <v>0</v>
       </c>
     </row>
@@ -2972,19 +2977,19 @@
       <c r="O38">
         <v>0</v>
       </c>
-      <c r="P38" s="5">
+      <c r="P38">
         <v>89.894360432464197</v>
       </c>
-      <c r="Q38" s="5">
+      <c r="Q38">
         <v>3.2828150551978599</v>
       </c>
-      <c r="R38" s="5">
+      <c r="R38">
         <v>8.6033978723845408</v>
       </c>
-      <c r="S38" s="5">
+      <c r="S38">
         <v>13.0139565954512</v>
       </c>
-      <c r="T38" s="5">
+      <c r="T38">
         <v>0</v>
       </c>
     </row>
@@ -3034,19 +3039,19 @@
       <c r="O39">
         <v>0</v>
       </c>
-      <c r="P39" s="5">
+      <c r="P39">
         <v>78.413384828084602</v>
       </c>
-      <c r="Q39" s="5">
+      <c r="Q39">
         <v>4.1803632115799596</v>
       </c>
-      <c r="R39" s="5">
+      <c r="R39">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S39" s="5">
+      <c r="S39">
         <v>15.616747914541399</v>
       </c>
-      <c r="T39" s="5">
+      <c r="T39">
         <v>0</v>
       </c>
     </row>
@@ -3096,19 +3101,19 @@
       <c r="O40">
         <v>0</v>
       </c>
-      <c r="P40" s="5">
+      <c r="P40">
         <v>60.457755408475101</v>
       </c>
-      <c r="Q40" s="5">
+      <c r="Q40">
         <v>4.8878829890287498</v>
       </c>
-      <c r="R40" s="5">
+      <c r="R40">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S40" s="5">
+      <c r="S40">
         <v>15.616747914541399</v>
       </c>
-      <c r="T40" s="5">
+      <c r="T40">
         <v>0</v>
       </c>
     </row>
@@ -3158,19 +3163,19 @@
       <c r="O41">
         <v>0</v>
       </c>
-      <c r="P41" s="5">
+      <c r="P41">
         <v>51.175058133136197</v>
       </c>
-      <c r="Q41" s="5">
+      <c r="Q41">
         <v>5.42104535780555</v>
       </c>
-      <c r="R41" s="5">
+      <c r="R41">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S41" s="5">
+      <c r="S41">
         <v>15.616747914541399</v>
       </c>
-      <c r="T41" s="5">
+      <c r="T41">
         <v>0</v>
       </c>
     </row>
@@ -3220,19 +3225,19 @@
       <c r="O42">
         <v>0</v>
       </c>
-      <c r="P42" s="5">
+      <c r="P42">
         <v>59.376158786444101</v>
       </c>
-      <c r="Q42" s="5">
+      <c r="Q42">
         <v>3.1772495554110098</v>
       </c>
-      <c r="R42" s="5">
+      <c r="R42">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S42" s="5">
+      <c r="S42">
         <v>15.616747914541399</v>
       </c>
-      <c r="T42" s="5">
+      <c r="T42">
         <v>0</v>
       </c>
     </row>
@@ -3282,19 +3287,19 @@
       <c r="O43">
         <v>0</v>
       </c>
-      <c r="P43" s="5">
+      <c r="P43">
         <v>56.466694870070498</v>
       </c>
-      <c r="Q43" s="5">
+      <c r="Q43">
         <v>3.2684268983529798</v>
       </c>
-      <c r="R43" s="5">
+      <c r="R43">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S43" s="5">
+      <c r="S43">
         <v>15.616747914541399</v>
       </c>
-      <c r="T43" s="5">
+      <c r="T43">
         <v>0</v>
       </c>
     </row>
@@ -3344,19 +3349,19 @@
       <c r="O44">
         <v>0</v>
       </c>
-      <c r="P44" s="5">
+      <c r="P44">
         <v>48.351109483808003</v>
       </c>
-      <c r="Q44" s="5">
+      <c r="Q44">
         <v>3.2684268983529798</v>
       </c>
-      <c r="R44" s="5">
+      <c r="R44">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S44" s="5">
+      <c r="S44">
         <v>15.616747914541399</v>
       </c>
-      <c r="T44" s="5">
+      <c r="T44">
         <v>0</v>
       </c>
     </row>
@@ -3406,19 +3411,19 @@
       <c r="O45">
         <v>0</v>
       </c>
-      <c r="P45" s="5">
+      <c r="P45">
         <v>46.718392879742503</v>
       </c>
-      <c r="Q45" s="5">
+      <c r="Q45">
         <v>3.2684268983529798</v>
       </c>
-      <c r="R45" s="5">
+      <c r="R45">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S45" s="5">
+      <c r="S45">
         <v>15.616747914541399</v>
       </c>
-      <c r="T45" s="5">
+      <c r="T45">
         <v>0</v>
       </c>
     </row>
@@ -3468,19 +3473,19 @@
       <c r="O46">
         <v>0</v>
       </c>
-      <c r="P46" s="5">
+      <c r="P46">
         <v>46.718392879742503</v>
       </c>
-      <c r="Q46" s="5">
+      <c r="Q46">
         <v>2.5189091199690701</v>
       </c>
-      <c r="R46" s="5">
+      <c r="R46">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S46" s="5">
+      <c r="S46">
         <v>15.616747914541399</v>
       </c>
-      <c r="T46" s="5">
+      <c r="T46">
         <v>0</v>
       </c>
     </row>
@@ -3530,19 +3535,19 @@
       <c r="O47">
         <v>0</v>
       </c>
-      <c r="P47" s="5">
+      <c r="P47">
         <v>46.718392879742503</v>
       </c>
-      <c r="Q47" s="5">
+      <c r="Q47">
         <v>2.5189091199690701</v>
       </c>
-      <c r="R47" s="5">
+      <c r="R47">
         <v>7.8508729664793</v>
       </c>
-      <c r="S47" s="5">
+      <c r="S47">
         <v>15.616747914541399</v>
       </c>
-      <c r="T47" s="5">
+      <c r="T47">
         <v>0</v>
       </c>
     </row>
@@ -3592,19 +3597,19 @@
       <c r="O48">
         <v>0</v>
       </c>
-      <c r="P48" s="5">
+      <c r="P48">
         <v>49.102599953716798</v>
       </c>
-      <c r="Q48" s="5">
+      <c r="Q48">
         <v>2.0226078294060299</v>
       </c>
-      <c r="R48" s="5">
+      <c r="R48">
         <v>7.8508729664793</v>
       </c>
-      <c r="S48" s="5">
+      <c r="S48">
         <v>10.411165276360901</v>
       </c>
-      <c r="T48" s="5">
+      <c r="T48">
         <v>0</v>
       </c>
     </row>
@@ -3654,19 +3659,19 @@
       <c r="O49">
         <v>0</v>
       </c>
-      <c r="P49" s="5">
+      <c r="P49">
         <v>100.728123173264</v>
       </c>
-      <c r="Q49" s="5">
+      <c r="Q49">
         <v>3.49413281204381</v>
       </c>
-      <c r="R49" s="5">
+      <c r="R49">
         <v>7.8508729664793</v>
       </c>
-      <c r="S49" s="5">
+      <c r="S49">
         <v>10.411165276360901</v>
       </c>
-      <c r="T49" s="5">
+      <c r="T49">
         <v>0</v>
       </c>
     </row>
@@ -3716,19 +3721,19 @@
       <c r="O50">
         <v>0</v>
       </c>
-      <c r="P50" s="5">
+      <c r="P50">
         <v>100.728123173264</v>
       </c>
-      <c r="Q50" s="5">
+      <c r="Q50">
         <v>2.6928560069908598</v>
       </c>
-      <c r="R50" s="5">
+      <c r="R50">
         <v>7.8508729664793</v>
       </c>
-      <c r="S50" s="5">
+      <c r="S50">
         <v>10.411165276360901</v>
       </c>
-      <c r="T50" s="5">
+      <c r="T50">
         <v>0</v>
       </c>
     </row>
@@ -3778,19 +3783,19 @@
       <c r="O51">
         <v>0</v>
       </c>
-      <c r="P51" s="5">
+      <c r="P51">
         <v>98.019187569859</v>
       </c>
-      <c r="Q51" s="5">
+      <c r="Q51">
         <v>2.6928560069908598</v>
       </c>
-      <c r="R51" s="5">
+      <c r="R51">
         <v>7.8508729664793</v>
       </c>
-      <c r="S51" s="5">
+      <c r="S51">
         <v>10.411165276360901</v>
       </c>
-      <c r="T51" s="5">
+      <c r="T51">
         <v>0</v>
       </c>
     </row>
@@ -3840,19 +3845,19 @@
       <c r="O52">
         <v>0</v>
       </c>
-      <c r="P52" s="5">
+      <c r="P52">
         <v>83.298828897756394</v>
       </c>
-      <c r="Q52" s="5">
+      <c r="Q52">
         <v>2.6928560069908598</v>
       </c>
-      <c r="R52" s="5">
+      <c r="R52">
         <v>7.8508729664793</v>
       </c>
-      <c r="S52" s="5">
+      <c r="S52">
         <v>10.411165276360901</v>
       </c>
-      <c r="T52" s="5">
+      <c r="T52">
         <v>0</v>
       </c>
     </row>
@@ -3902,19 +3907,19 @@
       <c r="O53">
         <v>0</v>
       </c>
-      <c r="P53" s="9">
+      <c r="P53">
         <v>78.889312125202693</v>
       </c>
-      <c r="Q53" s="9">
+      <c r="Q53">
         <v>5.4474226734173401</v>
       </c>
-      <c r="R53" s="9">
+      <c r="R53">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S53" s="9">
+      <c r="S53">
         <v>15.616747914541399</v>
       </c>
-      <c r="T53" s="9">
+      <c r="T53">
         <v>0</v>
       </c>
     </row>
@@ -3964,19 +3969,19 @@
       <c r="O54">
         <v>0</v>
       </c>
-      <c r="P54" s="9">
+      <c r="P54">
         <v>77.493646785360795</v>
       </c>
-      <c r="Q54" s="9">
+      <c r="Q54">
         <v>5.4814507344964403</v>
       </c>
-      <c r="R54" s="9">
+      <c r="R54">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S54" s="9">
+      <c r="S54">
         <v>15.616747914541399</v>
       </c>
-      <c r="T54" s="9">
+      <c r="T54">
         <v>0</v>
       </c>
     </row>
@@ -4026,19 +4031,19 @@
       <c r="O55">
         <v>0</v>
       </c>
-      <c r="P55" s="9">
+      <c r="P55">
         <v>76.098493172199895</v>
       </c>
-      <c r="Q55" s="9">
+      <c r="Q55">
         <v>5.5163483648888203</v>
       </c>
-      <c r="R55" s="9">
+      <c r="R55">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S55" s="9">
+      <c r="S55">
         <v>15.616747914541399</v>
       </c>
-      <c r="T55" s="9">
+      <c r="T55">
         <v>0</v>
       </c>
     </row>
@@ -4088,19 +4093,19 @@
       <c r="O56">
         <v>0</v>
       </c>
-      <c r="P56" s="9">
+      <c r="P56">
         <v>72.192270136326599</v>
       </c>
-      <c r="Q56" s="9">
+      <c r="Q56">
         <v>5.38415137705719</v>
       </c>
-      <c r="R56" s="9">
+      <c r="R56">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S56" s="9">
+      <c r="S56">
         <v>15.616747914541399</v>
       </c>
-      <c r="T56" s="9">
+      <c r="T56">
         <v>0</v>
       </c>
     </row>
@@ -4150,19 +4155,19 @@
       <c r="O57">
         <v>0</v>
       </c>
-      <c r="P57" s="9">
+      <c r="P57">
         <v>65.489761232117701</v>
       </c>
-      <c r="Q57" s="9">
+      <c r="Q57">
         <v>5.3284235579840997</v>
       </c>
-      <c r="R57" s="9">
+      <c r="R57">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S57" s="9">
+      <c r="S57">
         <v>15.616747914541399</v>
       </c>
-      <c r="T57" s="9">
+      <c r="T57">
         <v>0</v>
       </c>
     </row>
@@ -4212,19 +4217,19 @@
       <c r="O58">
         <v>0</v>
       </c>
-      <c r="P58" s="9">
+      <c r="P58">
         <v>71.264272210424394</v>
       </c>
-      <c r="Q58" s="9">
+      <c r="Q58">
         <v>5.7683752803763904</v>
       </c>
-      <c r="R58" s="9">
+      <c r="R58">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S58" s="9">
+      <c r="S58">
         <v>15.616747914541399</v>
       </c>
-      <c r="T58" s="9">
+      <c r="T58">
         <v>0</v>
       </c>
     </row>
@@ -4274,19 +4279,19 @@
       <c r="O59">
         <v>0</v>
       </c>
-      <c r="P59" s="9">
+      <c r="P59">
         <v>63.664034832694298</v>
       </c>
-      <c r="Q59" s="9">
+      <c r="Q59">
         <v>6.1449758738356097</v>
       </c>
-      <c r="R59" s="9">
+      <c r="R59">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S59" s="9">
+      <c r="S59">
         <v>15.616747914541399</v>
       </c>
-      <c r="T59" s="9">
+      <c r="T59">
         <v>0</v>
       </c>
     </row>
@@ -4336,19 +4341,19 @@
       <c r="O60">
         <v>0</v>
       </c>
-      <c r="P60" s="9">
+      <c r="P60">
         <v>74.902362269351102</v>
       </c>
-      <c r="Q60" s="9">
+      <c r="Q60">
         <v>5.5797928822937104</v>
       </c>
-      <c r="R60" s="9">
+      <c r="R60">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S60" s="9">
+      <c r="S60">
         <v>15.616747914541399</v>
       </c>
-      <c r="T60" s="9">
+      <c r="T60">
         <v>0</v>
       </c>
     </row>
@@ -4398,19 +4403,19 @@
       <c r="O61">
         <v>0</v>
       </c>
-      <c r="P61" s="9">
+      <c r="P61">
         <v>70.924573354920796</v>
       </c>
-      <c r="Q61" s="9">
+      <c r="Q61">
         <v>5.7214116130938697</v>
       </c>
-      <c r="R61" s="9">
+      <c r="R61">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S61" s="9">
+      <c r="S61">
         <v>15.616747914541399</v>
       </c>
-      <c r="T61" s="9">
+      <c r="T61">
         <v>0</v>
       </c>
     </row>
@@ -4460,19 +4465,19 @@
       <c r="O62">
         <v>0</v>
       </c>
-      <c r="P62" s="9">
+      <c r="P62">
         <v>83.325185916632705</v>
       </c>
-      <c r="Q62" s="9">
+      <c r="Q62">
         <v>4.3029813467274103</v>
       </c>
-      <c r="R62" s="9">
+      <c r="R62">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S62" s="9">
+      <c r="S62">
         <v>15.616747914541399</v>
       </c>
-      <c r="T62" s="9">
+      <c r="T62">
         <v>0</v>
       </c>
     </row>
@@ -4522,19 +4527,19 @@
       <c r="O63">
         <v>0</v>
       </c>
-      <c r="P63" s="9">
+      <c r="P63">
         <v>87.540433019795501</v>
       </c>
-      <c r="Q63" s="9">
+      <c r="Q63">
         <v>3.3659463461097499</v>
       </c>
-      <c r="R63" s="9">
+      <c r="R63">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S63" s="9">
+      <c r="S63">
         <v>15.616747914541399</v>
       </c>
-      <c r="T63" s="9">
+      <c r="T63">
         <v>0</v>
       </c>
     </row>
@@ -4584,19 +4589,19 @@
       <c r="O64">
         <v>0</v>
       </c>
-      <c r="P64" s="9">
+      <c r="P64">
         <v>77.843506275759907</v>
       </c>
-      <c r="Q64" s="9">
+      <c r="Q64">
         <v>5.4812634052463496</v>
       </c>
-      <c r="R64" s="9">
+      <c r="R64">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S64" s="9">
+      <c r="S64">
         <v>15.616747914541399</v>
       </c>
-      <c r="T64" s="9">
+      <c r="T64">
         <v>0</v>
       </c>
     </row>
@@ -4646,19 +4651,19 @@
       <c r="O65">
         <v>0</v>
       </c>
-      <c r="P65" s="9">
+      <c r="P65">
         <v>76.484791940771402</v>
       </c>
-      <c r="Q65" s="9">
+      <c r="Q65">
         <v>5.5261546077209101</v>
       </c>
-      <c r="R65" s="9">
+      <c r="R65">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S65" s="9">
+      <c r="S65">
         <v>15.616747914541399</v>
       </c>
-      <c r="T65" s="9">
+      <c r="T65">
         <v>0</v>
       </c>
     </row>
@@ -4708,19 +4713,19 @@
       <c r="O66">
         <v>0</v>
       </c>
-      <c r="P66" s="9">
+      <c r="P66">
         <v>72.583855285146399</v>
       </c>
-      <c r="Q66" s="9">
+      <c r="Q66">
         <v>5.4474226734173401</v>
       </c>
-      <c r="R66" s="9">
+      <c r="R66">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S66" s="9">
+      <c r="S66">
         <v>15.616747914541399</v>
       </c>
-      <c r="T66" s="9">
+      <c r="T66">
         <v>0</v>
       </c>
     </row>
@@ -4770,19 +4775,19 @@
       <c r="O67">
         <v>0</v>
       </c>
-      <c r="P67" s="9">
+      <c r="P67">
         <v>67.337715194219498</v>
       </c>
-      <c r="Q67" s="9">
+      <c r="Q67">
         <v>5.4474226734173401</v>
       </c>
-      <c r="R67" s="9">
+      <c r="R67">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S67" s="9">
+      <c r="S67">
         <v>15.616747914541399</v>
       </c>
-      <c r="T67" s="9">
+      <c r="T67">
         <v>0</v>
       </c>
     </row>
@@ -4832,19 +4837,19 @@
       <c r="O68">
         <v>0</v>
       </c>
-      <c r="P68" s="9">
+      <c r="P68">
         <v>77.748915639097703</v>
       </c>
-      <c r="Q68" s="9">
+      <c r="Q68">
         <v>5.4474226734173401</v>
       </c>
-      <c r="R68" s="9">
+      <c r="R68">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S68" s="9">
+      <c r="S68">
         <v>15.616747914541399</v>
       </c>
-      <c r="T68" s="9">
+      <c r="T68">
         <v>0</v>
       </c>
     </row>
@@ -4894,19 +4899,19 @@
       <c r="O69">
         <v>0</v>
       </c>
-      <c r="P69" s="9">
+      <c r="P69">
         <v>76.806771200760807</v>
       </c>
-      <c r="Q69" s="9">
+      <c r="Q69">
         <v>5.4474226734173401</v>
       </c>
-      <c r="R69" s="9">
+      <c r="R69">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S69" s="9">
+      <c r="S69">
         <v>15.616747914541399</v>
       </c>
-      <c r="T69" s="9">
+      <c r="T69">
         <v>0</v>
       </c>
     </row>
@@ -4956,19 +4961,19 @@
       <c r="O70">
         <v>0</v>
       </c>
-      <c r="P70" s="9">
+      <c r="P70">
         <v>78.889312125202693</v>
       </c>
-      <c r="Q70" s="9">
+      <c r="Q70">
         <v>4.7586833151737302</v>
       </c>
-      <c r="R70" s="9">
+      <c r="R70">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S70" s="9">
+      <c r="S70">
         <v>15.616747914541399</v>
       </c>
-      <c r="T70" s="9">
+      <c r="T70">
         <v>0</v>
       </c>
     </row>
@@ -5018,19 +5023,19 @@
       <c r="O71">
         <v>0</v>
       </c>
-      <c r="P71" s="9">
+      <c r="P71">
         <v>78.889312125202693</v>
       </c>
-      <c r="Q71" s="9">
+      <c r="Q71">
         <v>4.1982161691643798</v>
       </c>
-      <c r="R71" s="9">
+      <c r="R71">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S71" s="9">
+      <c r="S71">
         <v>15.616747914541399</v>
       </c>
-      <c r="T71" s="9">
+      <c r="T71">
         <v>0</v>
       </c>
     </row>
@@ -5080,19 +5085,19 @@
       <c r="O72">
         <v>0</v>
       </c>
-      <c r="P72" s="9">
+      <c r="P72">
         <v>78.889312125202693</v>
       </c>
-      <c r="Q72" s="9">
+      <c r="Q72">
         <v>5.4474226734173401</v>
       </c>
-      <c r="R72" s="9">
+      <c r="R72">
         <v>8.6033978723845408</v>
       </c>
-      <c r="S72" s="9">
+      <c r="S72">
         <v>15.616747914541399</v>
       </c>
-      <c r="T72" s="9">
+      <c r="T72">
         <v>0</v>
       </c>
     </row>
@@ -5142,19 +5147,19 @@
       <c r="O73">
         <v>0</v>
       </c>
-      <c r="P73" s="9">
+      <c r="P73">
         <v>78.889312125202693</v>
       </c>
-      <c r="Q73" s="9">
+      <c r="Q73">
         <v>5.4474226734173401</v>
       </c>
-      <c r="R73" s="9">
+      <c r="R73">
         <v>7.8508729664793</v>
       </c>
-      <c r="S73" s="9">
+      <c r="S73">
         <v>15.616747914541399</v>
       </c>
-      <c r="T73" s="9">
+      <c r="T73">
         <v>0</v>
       </c>
     </row>
@@ -5204,19 +5209,19 @@
       <c r="O74">
         <v>0</v>
       </c>
-      <c r="P74" s="9">
+      <c r="P74">
         <v>80.212516675068599</v>
       </c>
-      <c r="Q74" s="9">
+      <c r="Q74">
         <v>5.1326438151105798</v>
       </c>
-      <c r="R74" s="9">
+      <c r="R74">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S74" s="9">
+      <c r="S74">
         <v>13.0139565954512</v>
       </c>
-      <c r="T74" s="9">
+      <c r="T74">
         <v>0</v>
       </c>
     </row>
@@ -5266,19 +5271,19 @@
       <c r="O75">
         <v>0</v>
       </c>
-      <c r="P75" s="9">
+      <c r="P75">
         <v>81.547221052996093</v>
       </c>
-      <c r="Q75" s="9">
+      <c r="Q75">
         <v>4.8262029810502796</v>
       </c>
-      <c r="R75" s="9">
+      <c r="R75">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S75" s="9">
+      <c r="S75">
         <v>10.411165276360901</v>
       </c>
-      <c r="T75" s="9">
+      <c r="T75">
         <v>0</v>
       </c>
     </row>
@@ -5328,19 +5333,19 @@
       <c r="O76">
         <v>0</v>
       </c>
-      <c r="P76" s="9">
+      <c r="P76">
         <v>70.796923826753797</v>
       </c>
-      <c r="Q76" s="9">
+      <c r="Q76">
         <v>5.4207027504955496</v>
       </c>
-      <c r="R76" s="9">
+      <c r="R76">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S76" s="9">
+      <c r="S76">
         <v>15.616747914541399</v>
       </c>
-      <c r="T76" s="9">
+      <c r="T76">
         <v>0</v>
       </c>
     </row>
@@ -5390,19 +5395,19 @@
       <c r="O77">
         <v>0</v>
       </c>
-      <c r="P77" s="9">
+      <c r="P77">
         <v>63.1842679777073</v>
       </c>
-      <c r="Q77" s="9">
+      <c r="Q77">
         <v>5.7702086825569001</v>
       </c>
-      <c r="R77" s="9">
+      <c r="R77">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S77" s="9">
+      <c r="S77">
         <v>15.616747914541399</v>
       </c>
-      <c r="T77" s="9">
+      <c r="T77">
         <v>0</v>
       </c>
     </row>
@@ -5452,19 +5457,19 @@
       <c r="O78">
         <v>0</v>
       </c>
-      <c r="P78" s="9">
+      <c r="P78">
         <v>59.338820581567603</v>
       </c>
-      <c r="Q78" s="9">
+      <c r="Q78">
         <v>5.9397966132097402</v>
       </c>
-      <c r="R78" s="9">
+      <c r="R78">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S78" s="9">
+      <c r="S78">
         <v>15.616747914541399</v>
       </c>
-      <c r="T78" s="9">
+      <c r="T78">
         <v>0</v>
       </c>
     </row>
@@ -5514,19 +5519,19 @@
       <c r="O79">
         <v>0</v>
       </c>
-      <c r="P79" s="9">
+      <c r="P79">
         <v>63.438036308497502</v>
       </c>
-      <c r="Q79" s="9">
+      <c r="Q79">
         <v>4.6301842409175604</v>
       </c>
-      <c r="R79" s="9">
+      <c r="R79">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S79" s="9">
+      <c r="S79">
         <v>15.616747914541399</v>
       </c>
-      <c r="T79" s="9">
+      <c r="T79">
         <v>0</v>
       </c>
     </row>
@@ -5576,19 +5581,19 @@
       <c r="O80">
         <v>0</v>
       </c>
-      <c r="P80" s="9">
+      <c r="P80">
         <v>62.386292421506397</v>
       </c>
-      <c r="Q80" s="9">
+      <c r="Q80">
         <v>4.6657553938460596</v>
       </c>
-      <c r="R80" s="9">
+      <c r="R80">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S80" s="9">
+      <c r="S80">
         <v>15.616747914541399</v>
       </c>
-      <c r="T80" s="9">
+      <c r="T80">
         <v>0</v>
       </c>
     </row>
@@ -5638,19 +5643,19 @@
       <c r="O81">
         <v>0</v>
       </c>
-      <c r="P81" s="9">
+      <c r="P81">
         <v>57.431219815676997</v>
       </c>
-      <c r="Q81" s="9">
+      <c r="Q81">
         <v>4.6657553938460596</v>
       </c>
-      <c r="R81" s="9">
+      <c r="R81">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S81" s="9">
+      <c r="S81">
         <v>15.616747914541399</v>
       </c>
-      <c r="T81" s="9">
+      <c r="T81">
         <v>0</v>
       </c>
     </row>
@@ -5700,19 +5705,19 @@
       <c r="O82">
         <v>0</v>
       </c>
-      <c r="P82" s="9">
+      <c r="P82">
         <v>56.502596508813298</v>
       </c>
-      <c r="Q82" s="9">
+      <c r="Q82">
         <v>4.6657553938460596</v>
       </c>
-      <c r="R82" s="9">
+      <c r="R82">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S82" s="9">
+      <c r="S82">
         <v>15.616747914541399</v>
       </c>
-      <c r="T82" s="9">
+      <c r="T82">
         <v>0</v>
       </c>
     </row>
@@ -5762,19 +5767,19 @@
       <c r="O83">
         <v>0</v>
       </c>
-      <c r="P83" s="9">
+      <c r="P83">
         <v>56.502596508813298</v>
       </c>
-      <c r="Q83" s="9">
+      <c r="Q83">
         <v>4.0758453449415404</v>
       </c>
-      <c r="R83" s="9">
+      <c r="R83">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S83" s="9">
+      <c r="S83">
         <v>15.616747914541399</v>
       </c>
-      <c r="T83" s="9">
+      <c r="T83">
         <v>0</v>
       </c>
     </row>
@@ -5824,19 +5829,19 @@
       <c r="O84">
         <v>0</v>
       </c>
-      <c r="P84" s="9">
+      <c r="P84">
         <v>56.502596508813298</v>
       </c>
-      <c r="Q84" s="9">
+      <c r="Q84">
         <v>4.0758453449415404</v>
       </c>
-      <c r="R84" s="9">
+      <c r="R84">
         <v>8.6033978723845408</v>
       </c>
-      <c r="S84" s="9">
+      <c r="S84">
         <v>15.616747914541399</v>
       </c>
-      <c r="T84" s="9">
+      <c r="T84">
         <v>0</v>
       </c>
     </row>
@@ -5886,19 +5891,19 @@
       <c r="O85">
         <v>0</v>
       </c>
-      <c r="P85" s="9">
+      <c r="P85">
         <v>57.703250469525301</v>
       </c>
-      <c r="Q85" s="9">
+      <c r="Q85">
         <v>3.7938612607615498</v>
       </c>
-      <c r="R85" s="9">
+      <c r="R85">
         <v>8.6033978723845408</v>
       </c>
-      <c r="S85" s="9">
+      <c r="S85">
         <v>13.0139565954512</v>
       </c>
-      <c r="T85" s="9">
+      <c r="T85">
         <v>0</v>
       </c>
     </row>
@@ -5948,19 +5953,19 @@
       <c r="O86">
         <v>0</v>
       </c>
-      <c r="P86" s="9">
+      <c r="P86">
         <v>80.212516675068599</v>
       </c>
-      <c r="Q86" s="9">
+      <c r="Q86">
         <v>5.1326438151105798</v>
       </c>
-      <c r="R86" s="9">
+      <c r="R86">
         <v>8.6033978723845408</v>
       </c>
-      <c r="S86" s="9">
+      <c r="S86">
         <v>13.0139565954512</v>
       </c>
-      <c r="T86" s="9">
+      <c r="T86">
         <v>0</v>
       </c>
     </row>
@@ -6010,19 +6015,19 @@
       <c r="O87">
         <v>0</v>
       </c>
-      <c r="P87" s="9">
+      <c r="P87">
         <v>80.212516675068599</v>
       </c>
-      <c r="Q87" s="9">
+      <c r="Q87">
         <v>4.4837032024125998</v>
       </c>
-      <c r="R87" s="9">
+      <c r="R87">
         <v>8.6033978723845408</v>
       </c>
-      <c r="S87" s="9">
+      <c r="S87">
         <v>13.0139565954512</v>
       </c>
-      <c r="T87" s="9">
+      <c r="T87">
         <v>0</v>
       </c>
     </row>
@@ -6072,19 +6077,19 @@
       <c r="O88">
         <v>0</v>
       </c>
-      <c r="P88" s="9">
+      <c r="P88">
         <v>79.055785734204903</v>
       </c>
-      <c r="Q88" s="9">
+      <c r="Q88">
         <v>4.4837032024125998</v>
       </c>
-      <c r="R88" s="9">
+      <c r="R88">
         <v>8.6033978723845408</v>
       </c>
-      <c r="S88" s="9">
+      <c r="S88">
         <v>13.0139565954512</v>
       </c>
-      <c r="T88" s="9">
+      <c r="T88">
         <v>0</v>
       </c>
     </row>
@@ -6134,19 +6139,19 @@
       <c r="O89">
         <v>0</v>
       </c>
-      <c r="P89" s="9">
+      <c r="P89">
         <v>72.641571674903105</v>
       </c>
-      <c r="Q89" s="9">
+      <c r="Q89">
         <v>4.4837032024125998</v>
       </c>
-      <c r="R89" s="9">
+      <c r="R89">
         <v>8.6033978723845408</v>
       </c>
-      <c r="S89" s="9">
+      <c r="S89">
         <v>13.0139565954512</v>
       </c>
-      <c r="T89" s="9">
+      <c r="T89">
         <v>0</v>
       </c>
     </row>
@@ -6196,19 +6201,19 @@
       <c r="O90">
         <v>0</v>
       </c>
-      <c r="P90" s="9">
+      <c r="P90">
         <v>62.701276872530798</v>
       </c>
-      <c r="Q90" s="9">
+      <c r="Q90">
         <v>5.4084175340369596</v>
       </c>
-      <c r="R90" s="9">
+      <c r="R90">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S90" s="9">
+      <c r="S90">
         <v>15.616747914541399</v>
       </c>
-      <c r="T90" s="9">
+      <c r="T90">
         <v>0</v>
       </c>
     </row>
@@ -6258,19 +6263,19 @@
       <c r="O91">
         <v>0</v>
       </c>
-      <c r="P91" s="9">
+      <c r="P91">
         <v>47.921025141091803</v>
       </c>
-      <c r="Q91" s="9">
+      <c r="Q91">
         <v>6.3374077915551803</v>
       </c>
-      <c r="R91" s="9">
+      <c r="R91">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S91" s="9">
+      <c r="S91">
         <v>15.616747914541399</v>
       </c>
-      <c r="T91" s="9">
+      <c r="T91">
         <v>0</v>
       </c>
     </row>
@@ -6320,19 +6325,19 @@
       <c r="O92">
         <v>0</v>
       </c>
-      <c r="P92" s="9">
+      <c r="P92">
         <v>40.233361074280403</v>
       </c>
-      <c r="Q92" s="9">
+      <c r="Q92">
         <v>6.7864552919375001</v>
       </c>
-      <c r="R92" s="9">
+      <c r="R92">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S92" s="9">
+      <c r="S92">
         <v>15.616747914541399</v>
       </c>
-      <c r="T92" s="9">
+      <c r="T92">
         <v>0</v>
       </c>
     </row>
@@ -6382,19 +6387,19 @@
       <c r="O93">
         <v>0</v>
       </c>
-      <c r="P93" s="9">
+      <c r="P93">
         <v>47.365618839095802</v>
       </c>
-      <c r="Q93" s="9">
+      <c r="Q93">
         <v>3.9679728680086401</v>
       </c>
-      <c r="R93" s="9">
+      <c r="R93">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S93" s="9">
+      <c r="S93">
         <v>15.616747914541399</v>
       </c>
-      <c r="T93" s="9">
+      <c r="T93">
         <v>0</v>
       </c>
     </row>
@@ -6444,19 +6449,19 @@
       <c r="O94">
         <v>0</v>
       </c>
-      <c r="P94" s="9">
+      <c r="P94">
         <v>45.0323871244751</v>
       </c>
-      <c r="Q94" s="9">
+      <c r="Q94">
         <v>4.0614869845432198</v>
       </c>
-      <c r="R94" s="9">
+      <c r="R94">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S94" s="9">
+      <c r="S94">
         <v>15.616747914541399</v>
       </c>
-      <c r="T94" s="9">
+      <c r="T94">
         <v>0</v>
       </c>
     </row>
@@ -6506,19 +6511,19 @@
       <c r="O95">
         <v>0</v>
       </c>
-      <c r="P95" s="9">
+      <c r="P95">
         <v>38.535779739270303</v>
       </c>
-      <c r="Q95" s="9">
+      <c r="Q95">
         <v>4.0614869845432198</v>
       </c>
-      <c r="R95" s="9">
+      <c r="R95">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S95" s="9">
+      <c r="S95">
         <v>15.616747914541399</v>
       </c>
-      <c r="T95" s="9">
+      <c r="T95">
         <v>0</v>
       </c>
     </row>
@@ -6568,19 +6573,19 @@
       <c r="O96">
         <v>0</v>
       </c>
-      <c r="P96" s="9">
+      <c r="P96">
         <v>37.273479483288199</v>
       </c>
-      <c r="Q96" s="9">
+      <c r="Q96">
         <v>4.0614869845432198</v>
       </c>
-      <c r="R96" s="9">
+      <c r="R96">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S96" s="9">
+      <c r="S96">
         <v>15.616747914541399</v>
       </c>
-      <c r="T96" s="9">
+      <c r="T96">
         <v>0</v>
       </c>
     </row>
@@ -6630,19 +6635,19 @@
       <c r="O97">
         <v>0</v>
       </c>
-      <c r="P97" s="9">
+      <c r="P97">
         <v>37.273479483288199</v>
       </c>
-      <c r="Q97" s="9">
+      <c r="Q97">
         <v>3.1301041522932498</v>
       </c>
-      <c r="R97" s="9">
+      <c r="R97">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S97" s="9">
+      <c r="S97">
         <v>15.616747914541399</v>
       </c>
-      <c r="T97" s="9">
+      <c r="T97">
         <v>0</v>
       </c>
     </row>
@@ -6692,19 +6697,19 @@
       <c r="O98">
         <v>0</v>
       </c>
-      <c r="P98" s="9">
+      <c r="P98">
         <v>37.273479483288199</v>
       </c>
-      <c r="Q98" s="9">
+      <c r="Q98">
         <v>3.1301041522932498</v>
       </c>
-      <c r="R98" s="9">
+      <c r="R98">
         <v>7.8508729664793</v>
       </c>
-      <c r="S98" s="9">
+      <c r="S98">
         <v>15.616747914541399</v>
       </c>
-      <c r="T98" s="9">
+      <c r="T98">
         <v>0</v>
       </c>
     </row>
@@ -6754,19 +6759,19 @@
       <c r="O99">
         <v>0</v>
       </c>
-      <c r="P99" s="9">
+      <c r="P99">
         <v>39.387589413335</v>
       </c>
-      <c r="Q99" s="9">
+      <c r="Q99">
         <v>2.6123629686594301</v>
       </c>
-      <c r="R99" s="9">
+      <c r="R99">
         <v>7.8508729664793</v>
       </c>
-      <c r="S99" s="9">
+      <c r="S99">
         <v>10.411165276360901</v>
       </c>
-      <c r="T99" s="9">
+      <c r="T99">
         <v>0</v>
       </c>
     </row>
@@ -6816,19 +6821,19 @@
       <c r="O100">
         <v>0</v>
       </c>
-      <c r="P100" s="9">
+      <c r="P100">
         <v>81.547221052996093</v>
       </c>
-      <c r="Q100" s="9">
+      <c r="Q100">
         <v>4.8262029810502796</v>
       </c>
-      <c r="R100" s="9">
+      <c r="R100">
         <v>7.8508729664793</v>
       </c>
-      <c r="S100" s="9">
+      <c r="S100">
         <v>10.411165276360901</v>
       </c>
-      <c r="T100" s="9">
+      <c r="T100">
         <v>0</v>
       </c>
     </row>
@@ -6878,19 +6883,19 @@
       <c r="O101">
         <v>0</v>
       </c>
-      <c r="P101" s="9">
+      <c r="P101">
         <v>81.547221052996093</v>
       </c>
-      <c r="Q101" s="9">
+      <c r="Q101">
         <v>3.7194549799830301</v>
       </c>
-      <c r="R101" s="9">
+      <c r="R101">
         <v>7.8508729664793</v>
       </c>
-      <c r="S101" s="9">
+      <c r="S101">
         <v>10.411165276360901</v>
       </c>
-      <c r="T101" s="9">
+      <c r="T101">
         <v>0</v>
       </c>
     </row>
@@ -6940,19 +6945,19 @@
       <c r="O102">
         <v>0</v>
       </c>
-      <c r="P102" s="9">
+      <c r="P102">
         <v>79.404881504801594</v>
       </c>
-      <c r="Q102" s="9">
+      <c r="Q102">
         <v>3.7194549799830301</v>
       </c>
-      <c r="R102" s="9">
+      <c r="R102">
         <v>7.8508729664793</v>
       </c>
-      <c r="S102" s="9">
+      <c r="S102">
         <v>10.411165276360901</v>
       </c>
-      <c r="T102" s="9">
+      <c r="T102">
         <v>0</v>
       </c>
     </row>
@@ -7002,19 +7007,19 @@
       <c r="O103">
         <v>0</v>
       </c>
-      <c r="P103" s="9">
+      <c r="P103">
         <v>67.452988911096796</v>
       </c>
-      <c r="Q103" s="9">
+      <c r="Q103">
         <v>3.7194549799830301</v>
       </c>
-      <c r="R103" s="9">
+      <c r="R103">
         <v>7.8508729664793</v>
       </c>
-      <c r="S103" s="9">
+      <c r="S103">
         <v>10.411165276360901</v>
       </c>
-      <c r="T103" s="9">
+      <c r="T103">
         <v>0</v>
       </c>
     </row>
@@ -7064,19 +7069,19 @@
       <c r="O104">
         <v>0</v>
       </c>
-      <c r="P104" s="8">
+      <c r="P104">
         <v>61.4100682866056</v>
       </c>
-      <c r="Q104" s="8">
+      <c r="Q104">
         <v>9.02481373594064</v>
       </c>
-      <c r="R104" s="8">
+      <c r="R104">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S104" s="8">
+      <c r="S104">
         <v>15.616747914541399</v>
       </c>
-      <c r="T104" s="8">
+      <c r="T104">
         <v>0</v>
       </c>
     </row>
@@ -7126,19 +7131,19 @@
       <c r="O105">
         <v>0</v>
       </c>
-      <c r="P105" s="8">
+      <c r="P105">
         <v>60.270562151074898</v>
       </c>
-      <c r="Q105" s="8">
+      <c r="Q105">
         <v>9.0434391410295696</v>
       </c>
-      <c r="R105" s="8">
+      <c r="R105">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S105" s="8">
+      <c r="S105">
         <v>15.616747914541399</v>
       </c>
-      <c r="T105" s="8">
+      <c r="T105">
         <v>0</v>
       </c>
     </row>
@@ -7188,19 +7193,19 @@
       <c r="O106">
         <v>0</v>
       </c>
-      <c r="P106" s="8">
+      <c r="P106">
         <v>59.132418799991697</v>
       </c>
-      <c r="Q106" s="8">
+      <c r="Q106">
         <v>9.0626701154881406</v>
       </c>
-      <c r="R106" s="8">
+      <c r="R106">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S106" s="8">
+      <c r="S106">
         <v>15.616747914541399</v>
       </c>
-      <c r="T106" s="8">
+      <c r="T106">
         <v>0</v>
       </c>
     </row>
@@ -7250,19 +7255,19 @@
       <c r="O107">
         <v>0</v>
       </c>
-      <c r="P107" s="8">
+      <c r="P107">
         <v>55.941640277162399</v>
       </c>
-      <c r="Q107" s="8">
+      <c r="Q107">
         <v>8.7794791562523198</v>
       </c>
-      <c r="R107" s="8">
+      <c r="R107">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S107" s="8">
+      <c r="S107">
         <v>15.616747914541399</v>
       </c>
-      <c r="T107" s="8">
+      <c r="T107">
         <v>0</v>
       </c>
     </row>
@@ -7312,19 +7317,19 @@
       <c r="O108">
         <v>0</v>
       </c>
-      <c r="P108" s="8">
+      <c r="P108">
         <v>50.484499509247499</v>
       </c>
-      <c r="Q108" s="8">
+      <c r="Q108">
         <v>8.5380770906050891</v>
       </c>
-      <c r="R108" s="8">
+      <c r="R108">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S108" s="8">
+      <c r="S108">
         <v>15.616747914541399</v>
       </c>
-      <c r="T108" s="8">
+      <c r="T108">
         <v>0</v>
       </c>
     </row>
@@ -7374,19 +7379,19 @@
       <c r="O109">
         <v>0</v>
       </c>
-      <c r="P109" s="8">
+      <c r="P109">
         <v>55.020816803763601</v>
       </c>
-      <c r="Q109" s="8">
+      <c r="Q109">
         <v>9.2242139256916094</v>
       </c>
-      <c r="R109" s="8">
+      <c r="R109">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S109" s="8">
+      <c r="S109">
         <v>15.616747914541399</v>
       </c>
-      <c r="T109" s="8">
+      <c r="T109">
         <v>0</v>
       </c>
     </row>
@@ -7436,19 +7441,19 @@
       <c r="O110">
         <v>0</v>
       </c>
-      <c r="P110" s="8">
+      <c r="P110">
         <v>48.696089549122497</v>
       </c>
-      <c r="Q110" s="8">
+      <c r="Q110">
         <v>9.7587823805757594</v>
       </c>
-      <c r="R110" s="8">
+      <c r="R110">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S110" s="8">
+      <c r="S110">
         <v>15.616747914541399</v>
       </c>
-      <c r="T110" s="8">
+      <c r="T110">
         <v>0</v>
       </c>
     </row>
@@ -7498,19 +7503,19 @@
       <c r="O111">
         <v>0</v>
       </c>
-      <c r="P111" s="8">
+      <c r="P111">
         <v>58.064216783198397</v>
       </c>
-      <c r="Q111" s="8">
+      <c r="Q111">
         <v>9.15293449972887</v>
       </c>
-      <c r="R111" s="8">
+      <c r="R111">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S111" s="8">
+      <c r="S111">
         <v>15.616747914541399</v>
       </c>
-      <c r="T111" s="8">
+      <c r="T111">
         <v>0</v>
       </c>
     </row>
@@ -7560,19 +7565,19 @@
       <c r="O112">
         <v>0</v>
       </c>
-      <c r="P112" s="8">
+      <c r="P112">
         <v>54.737143028521999</v>
       </c>
-      <c r="Q112" s="8">
+      <c r="Q112">
         <v>9.2886391643805108</v>
       </c>
-      <c r="R112" s="8">
+      <c r="R112">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S112" s="8">
+      <c r="S112">
         <v>15.616747914541399</v>
       </c>
-      <c r="T112" s="8">
+      <c r="T112">
         <v>0</v>
       </c>
     </row>
@@ -7622,19 +7627,19 @@
       <c r="O113">
         <v>0</v>
       </c>
-      <c r="P113" s="8">
+      <c r="P113">
         <v>66.188356416246705</v>
       </c>
-      <c r="Q113" s="8">
+      <c r="Q113">
         <v>7.4348770147346501</v>
       </c>
-      <c r="R113" s="8">
+      <c r="R113">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S113" s="8">
+      <c r="S113">
         <v>15.616747914541399</v>
       </c>
-      <c r="T113" s="8">
+      <c r="T113">
         <v>0</v>
       </c>
     </row>
@@ -7684,19 +7689,19 @@
       <c r="O114">
         <v>0</v>
       </c>
-      <c r="P114" s="8">
+      <c r="P114">
         <v>70.846653776954597</v>
       </c>
-      <c r="Q114" s="8">
+      <c r="Q114">
         <v>5.9938092624590098</v>
       </c>
-      <c r="R114" s="8">
+      <c r="R114">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S114" s="8">
+      <c r="S114">
         <v>15.616747914541399</v>
       </c>
-      <c r="T114" s="8">
+      <c r="T114">
         <v>0</v>
       </c>
     </row>
@@ -7746,19 +7751,19 @@
       <c r="O115">
         <v>0</v>
       </c>
-      <c r="P115" s="8">
+      <c r="P115">
         <v>60.531284671749702</v>
       </c>
-      <c r="Q115" s="8">
+      <c r="Q115">
         <v>9.0576865295487998</v>
       </c>
-      <c r="R115" s="8">
+      <c r="R115">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S115" s="8">
+      <c r="S115">
         <v>15.616747914541399</v>
       </c>
-      <c r="T115" s="8">
+      <c r="T115">
         <v>0</v>
       </c>
     </row>
@@ -7808,19 +7813,19 @@
       <c r="O116">
         <v>0</v>
       </c>
-      <c r="P116" s="8">
+      <c r="P116">
         <v>59.390791859982002</v>
       </c>
-      <c r="Q116" s="8">
+      <c r="Q116">
         <v>9.1011680422003405</v>
       </c>
-      <c r="R116" s="8">
+      <c r="R116">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S116" s="8">
+      <c r="S116">
         <v>15.616747914541399</v>
       </c>
-      <c r="T116" s="8">
+      <c r="T116">
         <v>0</v>
       </c>
     </row>
@@ -7870,19 +7875,19 @@
       <c r="O117">
         <v>0</v>
       </c>
-      <c r="P117" s="8">
+      <c r="P117">
         <v>56.4987754301062</v>
       </c>
-      <c r="Q117" s="8">
+      <c r="Q117">
         <v>9.02481373594064</v>
       </c>
-      <c r="R117" s="8">
+      <c r="R117">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S117" s="8">
+      <c r="S117">
         <v>15.616747914541399</v>
       </c>
-      <c r="T117" s="8">
+      <c r="T117">
         <v>0</v>
       </c>
     </row>
@@ -7932,19 +7937,19 @@
       <c r="O118">
         <v>0</v>
       </c>
-      <c r="P118" s="8">
+      <c r="P118">
         <v>52.412579773498599</v>
       </c>
-      <c r="Q118" s="8">
+      <c r="Q118">
         <v>9.02481373594064</v>
       </c>
-      <c r="R118" s="8">
+      <c r="R118">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S118" s="8">
+      <c r="S118">
         <v>15.616747914541399</v>
       </c>
-      <c r="T118" s="8">
+      <c r="T118">
         <v>0</v>
       </c>
     </row>
@@ -7994,19 +7999,19 @@
       <c r="O119">
         <v>0</v>
       </c>
-      <c r="P119" s="8">
+      <c r="P119">
         <v>60.537978788396899</v>
       </c>
-      <c r="Q119" s="8">
+      <c r="Q119">
         <v>9.02481373594064</v>
       </c>
-      <c r="R119" s="8">
+      <c r="R119">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S119" s="8">
+      <c r="S119">
         <v>15.616747914541399</v>
       </c>
-      <c r="T119" s="8">
+      <c r="T119">
         <v>0</v>
       </c>
     </row>
@@ -8056,19 +8061,19 @@
       <c r="O120">
         <v>0</v>
       </c>
-      <c r="P120" s="8">
+      <c r="P120">
         <v>59.817497551844198</v>
       </c>
-      <c r="Q120" s="8">
+      <c r="Q120">
         <v>9.02481373594064</v>
       </c>
-      <c r="R120" s="8">
+      <c r="R120">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S120" s="8">
+      <c r="S120">
         <v>15.616747914541399</v>
       </c>
-      <c r="T120" s="8">
+      <c r="T120">
         <v>0</v>
       </c>
     </row>
@@ -8118,19 +8123,19 @@
       <c r="O121">
         <v>0</v>
       </c>
-      <c r="P121" s="8">
+      <c r="P121">
         <v>61.4100682866056</v>
       </c>
-      <c r="Q121" s="8">
+      <c r="Q121">
         <v>7.8837705686659802</v>
       </c>
-      <c r="R121" s="8">
+      <c r="R121">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S121" s="8">
+      <c r="S121">
         <v>15.616747914541399</v>
       </c>
-      <c r="T121" s="8">
+      <c r="T121">
         <v>0</v>
       </c>
     </row>
@@ -8180,19 +8185,19 @@
       <c r="O122">
         <v>0</v>
       </c>
-      <c r="P122" s="8">
+      <c r="P122">
         <v>61.4100682866056</v>
       </c>
-      <c r="Q122" s="8">
+      <c r="Q122">
         <v>6.9552375905786503</v>
       </c>
-      <c r="R122" s="8">
+      <c r="R122">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S122" s="8">
+      <c r="S122">
         <v>15.616747914541399</v>
       </c>
-      <c r="T122" s="8">
+      <c r="T122">
         <v>0</v>
       </c>
     </row>
@@ -8242,19 +8247,19 @@
       <c r="O123">
         <v>0</v>
       </c>
-      <c r="P123" s="8">
+      <c r="P123">
         <v>61.4100682866056</v>
       </c>
-      <c r="Q123" s="8">
+      <c r="Q123">
         <v>9.02481373594064</v>
       </c>
-      <c r="R123" s="8">
+      <c r="R123">
         <v>8.6033978723845408</v>
       </c>
-      <c r="S123" s="8">
+      <c r="S123">
         <v>15.616747914541399</v>
       </c>
-      <c r="T123" s="8">
+      <c r="T123">
         <v>0</v>
       </c>
     </row>
@@ -8304,19 +8309,19 @@
       <c r="O124">
         <v>0</v>
       </c>
-      <c r="P124" s="8">
+      <c r="P124">
         <v>61.4100682866056</v>
       </c>
-      <c r="Q124" s="8">
+      <c r="Q124">
         <v>9.02481373594064</v>
       </c>
-      <c r="R124" s="8">
+      <c r="R124">
         <v>7.8508729664793</v>
       </c>
-      <c r="S124" s="8">
+      <c r="S124">
         <v>15.616747914541399</v>
       </c>
-      <c r="T124" s="8">
+      <c r="T124">
         <v>0</v>
       </c>
     </row>
@@ -8366,19 +8371,19 @@
       <c r="O125">
         <v>0</v>
       </c>
-      <c r="P125" s="8">
+      <c r="P125">
         <v>62.579102577318302</v>
       </c>
-      <c r="Q125" s="8">
+      <c r="Q125">
         <v>8.6393920257237298</v>
       </c>
-      <c r="R125" s="8">
+      <c r="R125">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S125" s="8">
+      <c r="S125">
         <v>13.0139565954512</v>
       </c>
-      <c r="T125" s="8">
+      <c r="T125">
         <v>0</v>
       </c>
     </row>
@@ -8428,19 +8433,19 @@
       <c r="O126">
         <v>0</v>
       </c>
-      <c r="P126" s="8">
+      <c r="P126">
         <v>63.763391253140099</v>
       </c>
-      <c r="Q126" s="8">
+      <c r="Q126">
         <v>8.2590597285589205</v>
       </c>
-      <c r="R126" s="8">
+      <c r="R126">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S126" s="8">
+      <c r="S126">
         <v>10.411165276360901</v>
       </c>
-      <c r="T126" s="8">
+      <c r="T126">
         <v>0</v>
       </c>
     </row>
@@ -8490,19 +8495,19 @@
       <c r="O127">
         <v>0</v>
       </c>
-      <c r="P127" s="8">
+      <c r="P127">
         <v>54.806042650477401</v>
       </c>
-      <c r="Q127" s="8">
+      <c r="Q127">
         <v>8.7996109063226005</v>
       </c>
-      <c r="R127" s="8">
+      <c r="R127">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S127" s="8">
+      <c r="S127">
         <v>15.616747914541399</v>
       </c>
-      <c r="T127" s="8">
+      <c r="T127">
         <v>0</v>
       </c>
     </row>
@@ -8552,19 +8557,19 @@
       <c r="O128">
         <v>0</v>
       </c>
-      <c r="P128" s="8">
+      <c r="P128">
         <v>48.4596479712811</v>
       </c>
-      <c r="Q128" s="8">
+      <c r="Q128">
         <v>9.2135208669638402</v>
       </c>
-      <c r="R128" s="8">
+      <c r="R128">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S128" s="8">
+      <c r="S128">
         <v>15.616747914541399</v>
       </c>
-      <c r="T128" s="8">
+      <c r="T128">
         <v>0</v>
       </c>
     </row>
@@ -8614,19 +8619,19 @@
       <c r="O129">
         <v>0</v>
       </c>
-      <c r="P129" s="8">
+      <c r="P129">
         <v>45.177893050627297</v>
       </c>
-      <c r="Q129" s="8">
+      <c r="Q129">
         <v>9.3544986111250807</v>
       </c>
-      <c r="R129" s="8">
+      <c r="R129">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S129" s="8">
+      <c r="S129">
         <v>15.616747914541399</v>
       </c>
-      <c r="T129" s="8">
+      <c r="T129">
         <v>0</v>
       </c>
     </row>
@@ -8676,19 +8681,19 @@
       <c r="O130">
         <v>0</v>
       </c>
-      <c r="P130" s="8">
+      <c r="P130">
         <v>49.681173620197903</v>
       </c>
-      <c r="Q130" s="8">
+      <c r="Q130">
         <v>7.5406068708921703</v>
       </c>
-      <c r="R130" s="8">
+      <c r="R130">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S130" s="8">
+      <c r="S130">
         <v>15.616747914541399</v>
       </c>
-      <c r="T130" s="8">
+      <c r="T130">
         <v>0</v>
       </c>
     </row>
@@ -8738,19 +8743,19 @@
       <c r="O131">
         <v>0</v>
       </c>
-      <c r="P131" s="8">
+      <c r="P131">
         <v>48.797455602234102</v>
       </c>
-      <c r="Q131" s="8">
+      <c r="Q131">
         <v>7.5733846716854902</v>
       </c>
-      <c r="R131" s="8">
+      <c r="R131">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S131" s="8">
+      <c r="S131">
         <v>15.616747914541399</v>
       </c>
-      <c r="T131" s="8">
+      <c r="T131">
         <v>0</v>
       </c>
     </row>
@@ -8800,19 +8805,19 @@
       <c r="O132">
         <v>0</v>
       </c>
-      <c r="P132" s="8">
+      <c r="P132">
         <v>44.918155498367099</v>
       </c>
-      <c r="Q132" s="8">
+      <c r="Q132">
         <v>7.5733846716854902</v>
       </c>
-      <c r="R132" s="8">
+      <c r="R132">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S132" s="8">
+      <c r="S132">
         <v>15.616747914541399</v>
       </c>
-      <c r="T132" s="8">
+      <c r="T132">
         <v>0</v>
       </c>
     </row>
@@ -8862,19 +8867,19 @@
       <c r="O133">
         <v>0</v>
       </c>
-      <c r="P133" s="8">
+      <c r="P133">
         <v>44.208153427091801</v>
       </c>
-      <c r="Q133" s="8">
+      <c r="Q133">
         <v>7.5733846716854902</v>
       </c>
-      <c r="R133" s="8">
+      <c r="R133">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S133" s="8">
+      <c r="S133">
         <v>15.616747914541399</v>
       </c>
-      <c r="T133" s="8">
+      <c r="T133">
         <v>0</v>
       </c>
     </row>
@@ -8924,19 +8929,19 @@
       <c r="O134">
         <v>0</v>
       </c>
-      <c r="P134" s="8">
+      <c r="P134">
         <v>44.208153427091801</v>
       </c>
-      <c r="Q134" s="8">
+      <c r="Q134">
         <v>6.6158514653928098</v>
       </c>
-      <c r="R134" s="8">
+      <c r="R134">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S134" s="8">
+      <c r="S134">
         <v>15.616747914541399</v>
       </c>
-      <c r="T134" s="8">
+      <c r="T134">
         <v>0</v>
       </c>
     </row>
@@ -8986,19 +8991,19 @@
       <c r="O135">
         <v>0</v>
       </c>
-      <c r="P135" s="8">
+      <c r="P135">
         <v>44.208153427091801</v>
       </c>
-      <c r="Q135" s="8">
+      <c r="Q135">
         <v>6.6158514653928098</v>
       </c>
-      <c r="R135" s="8">
+      <c r="R135">
         <v>8.6033978723845408</v>
       </c>
-      <c r="S135" s="8">
+      <c r="S135">
         <v>15.616747914541399</v>
       </c>
-      <c r="T135" s="8">
+      <c r="T135">
         <v>0</v>
       </c>
     </row>
@@ -9048,19 +9053,19 @@
       <c r="O136">
         <v>0</v>
       </c>
-      <c r="P136" s="8">
+      <c r="P136">
         <v>45.269426127950503</v>
       </c>
-      <c r="Q136" s="8">
+      <c r="Q136">
         <v>6.2732413444417396</v>
       </c>
-      <c r="R136" s="8">
+      <c r="R136">
         <v>8.6033978723845408</v>
       </c>
-      <c r="S136" s="8">
+      <c r="S136">
         <v>13.0139565954512</v>
       </c>
-      <c r="T136" s="8">
+      <c r="T136">
         <v>0</v>
       </c>
     </row>
@@ -9110,19 +9115,19 @@
       <c r="O137">
         <v>0</v>
       </c>
-      <c r="P137" s="8">
+      <c r="P137">
         <v>62.579102577318302</v>
       </c>
-      <c r="Q137" s="8">
+      <c r="Q137">
         <v>8.6393920257237298</v>
       </c>
-      <c r="R137" s="8">
+      <c r="R137">
         <v>8.6033978723845408</v>
       </c>
-      <c r="S137" s="8">
+      <c r="S137">
         <v>13.0139565954512</v>
       </c>
-      <c r="T137" s="8">
+      <c r="T137">
         <v>0</v>
       </c>
     </row>
@@ -9172,19 +9177,19 @@
       <c r="O138">
         <v>0</v>
       </c>
-      <c r="P138" s="8">
+      <c r="P138">
         <v>62.579102577318302</v>
       </c>
-      <c r="Q138" s="8">
+      <c r="Q138">
         <v>7.5470792612950399</v>
       </c>
-      <c r="R138" s="8">
+      <c r="R138">
         <v>8.6033978723845408</v>
       </c>
-      <c r="S138" s="8">
+      <c r="S138">
         <v>13.0139565954512</v>
       </c>
-      <c r="T138" s="8">
+      <c r="T138">
         <v>0</v>
       </c>
     </row>
@@ -9234,19 +9239,19 @@
       <c r="O139">
         <v>0</v>
       </c>
-      <c r="P139" s="8">
+      <c r="P139">
         <v>61.692490345931603</v>
       </c>
-      <c r="Q139" s="8">
+      <c r="Q139">
         <v>7.5470792612950399</v>
       </c>
-      <c r="R139" s="8">
+      <c r="R139">
         <v>8.6033978723845408</v>
       </c>
-      <c r="S139" s="8">
+      <c r="S139">
         <v>13.0139565954512</v>
       </c>
-      <c r="T139" s="8">
+      <c r="T139">
         <v>0</v>
       </c>
     </row>
@@ -9296,19 +9301,19 @@
       <c r="O140">
         <v>0</v>
       </c>
-      <c r="P140" s="8">
+      <c r="P140">
         <v>56.685181817202299</v>
       </c>
-      <c r="Q140" s="8">
+      <c r="Q140">
         <v>7.5470792612950399</v>
       </c>
-      <c r="R140" s="8">
+      <c r="R140">
         <v>8.6033978723845408</v>
       </c>
-      <c r="S140" s="8">
+      <c r="S140">
         <v>13.0139565954512</v>
       </c>
-      <c r="T140" s="8">
+      <c r="T140">
         <v>0</v>
       </c>
     </row>
@@ -9358,19 +9363,19 @@
       <c r="O141">
         <v>0</v>
       </c>
-      <c r="P141" s="8">
+      <c r="P141">
         <v>48.224257509819502</v>
       </c>
-      <c r="Q141" s="8">
+      <c r="Q141">
         <v>8.6565345907211402</v>
       </c>
-      <c r="R141" s="8">
+      <c r="R141">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S141" s="8">
+      <c r="S141">
         <v>15.616747914541399</v>
       </c>
-      <c r="T141" s="8">
+      <c r="T141">
         <v>0</v>
       </c>
     </row>
@@ -9420,19 +9425,19 @@
       <c r="O142">
         <v>0</v>
       </c>
-      <c r="P142" s="8">
+      <c r="P142">
         <v>35.892839721080598</v>
       </c>
-      <c r="Q142" s="8">
+      <c r="Q142">
         <v>9.4830158702086997</v>
       </c>
-      <c r="R142" s="8">
+      <c r="R142">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S142" s="8">
+      <c r="S142">
         <v>15.616747914541399</v>
       </c>
-      <c r="T142" s="8">
+      <c r="T142">
         <v>0</v>
       </c>
     </row>
@@ -9482,19 +9487,19 @@
       <c r="O143">
         <v>0</v>
       </c>
-      <c r="P143" s="8">
+      <c r="P143">
         <v>29.628455016563102</v>
       </c>
-      <c r="Q143" s="8">
+      <c r="Q143">
         <v>9.9757226415960805</v>
       </c>
-      <c r="R143" s="8">
+      <c r="R143">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S143" s="8">
+      <c r="S143">
         <v>15.616747914541399</v>
       </c>
-      <c r="T143" s="8">
+      <c r="T143">
         <v>0</v>
       </c>
     </row>
@@ -9544,19 +9549,19 @@
       <c r="O144">
         <v>0</v>
       </c>
-      <c r="P144" s="8">
+      <c r="P144">
         <v>37.325410172682098</v>
       </c>
-      <c r="Q144" s="8">
+      <c r="Q144">
         <v>6.0855988967640302</v>
       </c>
-      <c r="R144" s="8">
+      <c r="R144">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S144" s="8">
+      <c r="S144">
         <v>15.616747914541399</v>
       </c>
-      <c r="T144" s="8">
+      <c r="T144">
         <v>0</v>
       </c>
     </row>
@@ -9606,19 +9611,19 @@
       <c r="O145">
         <v>0</v>
       </c>
-      <c r="P145" s="8">
+      <c r="P145">
         <v>35.292409375803103</v>
       </c>
-      <c r="Q145" s="8">
+      <c r="Q145">
         <v>6.16546243950304</v>
       </c>
-      <c r="R145" s="8">
+      <c r="R145">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S145" s="8">
+      <c r="S145">
         <v>15.616747914541399</v>
       </c>
-      <c r="T145" s="8">
+      <c r="T145">
         <v>0</v>
       </c>
     </row>
@@ -9668,19 +9673,19 @@
       <c r="O146">
         <v>0</v>
       </c>
-      <c r="P146" s="8">
+      <c r="P146">
         <v>30.196093152678898</v>
       </c>
-      <c r="Q146" s="8">
+      <c r="Q146">
         <v>6.16546243950304</v>
       </c>
-      <c r="R146" s="8">
+      <c r="R146">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S146" s="8">
+      <c r="S146">
         <v>15.616747914541399</v>
       </c>
-      <c r="T146" s="8">
+      <c r="T146">
         <v>0</v>
       </c>
     </row>
@@ -9730,19 +9735,19 @@
       <c r="O147">
         <v>0</v>
       </c>
-      <c r="P147" s="8">
+      <c r="P147">
         <v>29.234403389683699</v>
       </c>
-      <c r="Q147" s="8">
+      <c r="Q147">
         <v>6.16546243950304</v>
       </c>
-      <c r="R147" s="8">
+      <c r="R147">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S147" s="8">
+      <c r="S147">
         <v>15.616747914541399</v>
       </c>
-      <c r="T147" s="8">
+      <c r="T147">
         <v>0</v>
       </c>
     </row>
@@ -9792,19 +9797,19 @@
       <c r="O148">
         <v>0</v>
       </c>
-      <c r="P148" s="8">
+      <c r="P148">
         <v>29.234403389683699</v>
       </c>
-      <c r="Q148" s="8">
+      <c r="Q148">
         <v>4.7515945898979597</v>
       </c>
-      <c r="R148" s="8">
+      <c r="R148">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S148" s="8">
+      <c r="S148">
         <v>15.616747914541399</v>
       </c>
-      <c r="T148" s="8">
+      <c r="T148">
         <v>0</v>
       </c>
     </row>
@@ -9854,19 +9859,19 @@
       <c r="O149">
         <v>0</v>
       </c>
-      <c r="P149" s="8">
+      <c r="P149">
         <v>29.234403389683699</v>
       </c>
-      <c r="Q149" s="8">
+      <c r="Q149">
         <v>4.7515945898979597</v>
       </c>
-      <c r="R149" s="8">
+      <c r="R149">
         <v>7.8508729664793</v>
       </c>
-      <c r="S149" s="8">
+      <c r="S149">
         <v>15.616747914541399</v>
       </c>
-      <c r="T149" s="8">
+      <c r="T149">
         <v>0</v>
       </c>
     </row>
@@ -9916,19 +9921,19 @@
       <c r="O150">
         <v>0</v>
       </c>
-      <c r="P150" s="8">
+      <c r="P150">
         <v>31.168967159182198</v>
       </c>
-      <c r="Q150" s="8">
+      <c r="Q150">
         <v>4.1416131913799799</v>
       </c>
-      <c r="R150" s="8">
+      <c r="R150">
         <v>7.8508729664793</v>
       </c>
-      <c r="S150" s="8">
+      <c r="S150">
         <v>10.411165276360901</v>
       </c>
-      <c r="T150" s="8">
+      <c r="T150">
         <v>0</v>
       </c>
     </row>
@@ -9978,19 +9983,19 @@
       <c r="O151">
         <v>0</v>
       </c>
-      <c r="P151" s="8">
+      <c r="P151">
         <v>63.763391253140099</v>
       </c>
-      <c r="Q151" s="8">
+      <c r="Q151">
         <v>8.2590597285589205</v>
       </c>
-      <c r="R151" s="8">
+      <c r="R151">
         <v>7.8508729664793</v>
       </c>
-      <c r="S151" s="8">
+      <c r="S151">
         <v>10.411165276360901</v>
       </c>
-      <c r="T151" s="8">
+      <c r="T151">
         <v>0</v>
       </c>
     </row>
@@ -10040,19 +10045,19 @@
       <c r="O152">
         <v>0</v>
       </c>
-      <c r="P152" s="8">
+      <c r="P152">
         <v>63.763391253140099</v>
       </c>
-      <c r="Q152" s="8">
+      <c r="Q152">
         <v>6.3650867893419196</v>
       </c>
-      <c r="R152" s="8">
+      <c r="R152">
         <v>7.8508729664793</v>
       </c>
-      <c r="S152" s="8">
+      <c r="S152">
         <v>10.411165276360901</v>
       </c>
-      <c r="T152" s="8">
+      <c r="T152">
         <v>0</v>
       </c>
     </row>
@@ -10102,19 +10107,19 @@
       <c r="O153">
         <v>0</v>
       </c>
-      <c r="P153" s="8">
+      <c r="P153">
         <v>62.117536976430401</v>
       </c>
-      <c r="Q153" s="8">
+      <c r="Q153">
         <v>6.3650867893419196</v>
       </c>
-      <c r="R153" s="8">
+      <c r="R153">
         <v>7.8508729664793</v>
       </c>
-      <c r="S153" s="8">
+      <c r="S153">
         <v>10.411165276360901</v>
       </c>
-      <c r="T153" s="8">
+      <c r="T153">
         <v>0</v>
       </c>
     </row>
@@ -10164,19 +10169,19 @@
       <c r="O154">
         <v>0</v>
       </c>
-      <c r="P154" s="8">
+      <c r="P154">
         <v>52.765870229570503</v>
       </c>
-      <c r="Q154" s="8">
+      <c r="Q154">
         <v>6.3650867893419196</v>
       </c>
-      <c r="R154" s="8">
+      <c r="R154">
         <v>7.8508729664793</v>
       </c>
-      <c r="S154" s="8">
+      <c r="S154">
         <v>10.411165276360901</v>
       </c>
-      <c r="T154" s="8">
+      <c r="T154">
         <v>0</v>
       </c>
     </row>
@@ -10226,19 +10231,19 @@
       <c r="O155">
         <v>1</v>
       </c>
-      <c r="P155" s="7">
+      <c r="P155">
         <v>45.643479971667396</v>
       </c>
-      <c r="Q155" s="7">
+      <c r="Q155">
         <v>9.1267808542596107</v>
       </c>
-      <c r="R155" s="7">
+      <c r="R155">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S155" s="7">
+      <c r="S155">
         <v>15.616747914541399</v>
       </c>
-      <c r="T155" s="7">
+      <c r="T155">
         <v>0</v>
       </c>
     </row>
@@ -10288,19 +10293,19 @@
       <c r="O156">
         <v>1</v>
       </c>
-      <c r="P156" s="7">
+      <c r="P156">
         <v>44.725751398013202</v>
       </c>
-      <c r="Q156" s="7">
+      <c r="Q156">
         <v>9.1279762611954798</v>
       </c>
-      <c r="R156" s="7">
+      <c r="R156">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S156" s="7">
+      <c r="S156">
         <v>15.616747914541399</v>
       </c>
-      <c r="T156" s="7">
+      <c r="T156">
         <v>0</v>
       </c>
     </row>
@@ -10350,19 +10355,19 @@
       <c r="O157">
         <v>1</v>
       </c>
-      <c r="P157" s="7">
+      <c r="P157">
         <v>43.809390380172999</v>
       </c>
-      <c r="Q157" s="7">
+      <c r="Q157">
         <v>9.1300004399991792</v>
       </c>
-      <c r="R157" s="7">
+      <c r="R157">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S157" s="7">
+      <c r="S157">
         <v>15.616747914541399</v>
       </c>
-      <c r="T157" s="7">
+      <c r="T157">
         <v>0</v>
       </c>
     </row>
@@ -10412,19 +10417,19 @@
       <c r="O158">
         <v>1</v>
       </c>
-      <c r="P158" s="7">
+      <c r="P158">
         <v>41.322967264139102</v>
       </c>
-      <c r="Q158" s="7">
+      <c r="Q158">
         <v>9.16021644394052</v>
       </c>
-      <c r="R158" s="7">
+      <c r="R158">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S158" s="7">
+      <c r="S158">
         <v>15.616747914541399</v>
       </c>
-      <c r="T158" s="7">
+      <c r="T158">
         <v>0</v>
       </c>
     </row>
@@ -10474,19 +10479,19 @@
       <c r="O159">
         <v>1</v>
       </c>
-      <c r="P159" s="7">
+      <c r="P159">
         <v>37.016044686161003</v>
       </c>
-      <c r="Q159" s="7">
+      <c r="Q159">
         <v>8.8543799107994392</v>
       </c>
-      <c r="R159" s="7">
+      <c r="R159">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S159" s="7">
+      <c r="S159">
         <v>15.616747914541399</v>
       </c>
-      <c r="T159" s="7">
+      <c r="T159">
         <v>0</v>
       </c>
     </row>
@@ -10536,19 +10541,19 @@
       <c r="O160">
         <v>1</v>
       </c>
-      <c r="P160" s="7">
+      <c r="P160">
         <v>40.713294094536501</v>
       </c>
-      <c r="Q160" s="7">
+      <c r="Q160">
         <v>9.3053891490593195</v>
       </c>
-      <c r="R160" s="7">
+      <c r="R160">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S160" s="7">
+      <c r="S160">
         <v>15.616747914541399</v>
       </c>
-      <c r="T160" s="7">
+      <c r="T160">
         <v>0</v>
       </c>
     </row>
@@ -10598,19 +10603,19 @@
       <c r="O161">
         <v>1</v>
       </c>
-      <c r="P161" s="7">
+      <c r="P161">
         <v>35.756293909362697</v>
       </c>
-      <c r="Q161" s="7">
+      <c r="Q161">
         <v>9.7049188562661897</v>
       </c>
-      <c r="R161" s="7">
+      <c r="R161">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S161" s="7">
+      <c r="S161">
         <v>15.616747914541399</v>
       </c>
-      <c r="T161" s="7">
+      <c r="T161">
         <v>0</v>
       </c>
     </row>
@@ -10660,19 +10665,19 @@
       <c r="O162">
         <v>1</v>
       </c>
-      <c r="P162" s="7">
+      <c r="P162">
         <v>43.060621675451102</v>
       </c>
-      <c r="Q162" s="7">
+      <c r="Q162">
         <v>9.1976097115189592</v>
       </c>
-      <c r="R162" s="7">
+      <c r="R162">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S162" s="7">
+      <c r="S162">
         <v>15.616747914541399</v>
       </c>
-      <c r="T162" s="7">
+      <c r="T162">
         <v>0</v>
       </c>
     </row>
@@ -10722,19 +10727,19 @@
       <c r="O163">
         <v>1</v>
       </c>
-      <c r="P163" s="7">
+      <c r="P163">
         <v>40.494639033070001</v>
       </c>
-      <c r="Q163" s="7">
+      <c r="Q163">
         <v>9.2778406548284806</v>
       </c>
-      <c r="R163" s="7">
+      <c r="R163">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S163" s="7">
+      <c r="S163">
         <v>15.616747914541399</v>
       </c>
-      <c r="T163" s="7">
+      <c r="T163">
         <v>0</v>
       </c>
     </row>
@@ -10784,19 +10789,19 @@
       <c r="O164">
         <v>1</v>
       </c>
-      <c r="P164" s="7">
+      <c r="P164">
         <v>49.139024817212203</v>
       </c>
-      <c r="Q164" s="7">
+      <c r="Q164">
         <v>7.8660812059454903</v>
       </c>
-      <c r="R164" s="7">
+      <c r="R164">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S164" s="7">
+      <c r="S164">
         <v>15.616747914541399</v>
       </c>
-      <c r="T164" s="7">
+      <c r="T164">
         <v>0</v>
       </c>
     </row>
@@ -10846,19 +10851,19 @@
       <c r="O165">
         <v>1</v>
       </c>
-      <c r="P165" s="7">
+      <c r="P165">
         <v>52.338448300668396</v>
       </c>
-      <c r="Q165" s="7">
+      <c r="Q165">
         <v>6.5866442481838199</v>
       </c>
-      <c r="R165" s="7">
+      <c r="R165">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S165" s="7">
+      <c r="S165">
         <v>15.616747914541399</v>
       </c>
-      <c r="T165" s="7">
+      <c r="T165">
         <v>0</v>
       </c>
     </row>
@@ -10908,19 +10913,19 @@
       <c r="O166">
         <v>1</v>
       </c>
-      <c r="P166" s="7">
+      <c r="P166">
         <v>44.964956903558303</v>
       </c>
-      <c r="Q166" s="7">
+      <c r="Q166">
         <v>9.1444826628890699</v>
       </c>
-      <c r="R166" s="7">
+      <c r="R166">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S166" s="7">
+      <c r="S166">
         <v>15.616747914541399</v>
       </c>
-      <c r="T166" s="7">
+      <c r="T166">
         <v>0</v>
       </c>
     </row>
@@ -10970,19 +10975,19 @@
       <c r="O167">
         <v>1</v>
       </c>
-      <c r="P167" s="7">
+      <c r="P167">
         <v>44.084483968965301</v>
       </c>
-      <c r="Q167" s="7">
+      <c r="Q167">
         <v>9.1684008011122398</v>
       </c>
-      <c r="R167" s="7">
+      <c r="R167">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S167" s="7">
+      <c r="S167">
         <v>15.616747914541399</v>
       </c>
-      <c r="T167" s="7">
+      <c r="T167">
         <v>0</v>
       </c>
     </row>
@@ -11032,19 +11037,19 @@
       <c r="O168">
         <v>1</v>
       </c>
-      <c r="P168" s="7">
+      <c r="P168">
         <v>41.956630527726702</v>
       </c>
-      <c r="Q168" s="7">
+      <c r="Q168">
         <v>9.1267808542596107</v>
       </c>
-      <c r="R168" s="7">
+      <c r="R168">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S168" s="7">
+      <c r="S168">
         <v>15.616747914541399</v>
       </c>
-      <c r="T168" s="7">
+      <c r="T168">
         <v>0</v>
       </c>
     </row>
@@ -11094,19 +11099,19 @@
       <c r="O169">
         <v>1</v>
       </c>
-      <c r="P169" s="7">
+      <c r="P169">
         <v>38.889171790368003</v>
       </c>
-      <c r="Q169" s="7">
+      <c r="Q169">
         <v>9.1267808542596107</v>
       </c>
-      <c r="R169" s="7">
+      <c r="R169">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S169" s="7">
+      <c r="S169">
         <v>15.616747914541399</v>
       </c>
-      <c r="T169" s="7">
+      <c r="T169">
         <v>0</v>
       </c>
     </row>
@@ -11156,19 +11161,19 @@
       <c r="O170">
         <v>1</v>
       </c>
-      <c r="P170" s="7">
+      <c r="P170">
         <v>45.054959236438201</v>
       </c>
-      <c r="Q170" s="7">
+      <c r="Q170">
         <v>9.1267808542596107</v>
       </c>
-      <c r="R170" s="7">
+      <c r="R170">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S170" s="7">
+      <c r="S170">
         <v>15.616747914541399</v>
       </c>
-      <c r="T170" s="7">
+      <c r="T170">
         <v>0</v>
       </c>
     </row>
@@ -11218,19 +11223,19 @@
       <c r="O171">
         <v>1</v>
       </c>
-      <c r="P171" s="7">
+      <c r="P171">
         <v>44.568749795863901</v>
       </c>
-      <c r="Q171" s="7">
+      <c r="Q171">
         <v>9.1267808542596107</v>
       </c>
-      <c r="R171" s="7">
+      <c r="R171">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S171" s="7">
+      <c r="S171">
         <v>15.616747914541399</v>
       </c>
-      <c r="T171" s="7">
+      <c r="T171">
         <v>0</v>
       </c>
     </row>
@@ -11280,19 +11285,19 @@
       <c r="O172">
         <v>1</v>
       </c>
-      <c r="P172" s="7">
+      <c r="P172">
         <v>45.643479971667396</v>
       </c>
-      <c r="Q172" s="7">
+      <c r="Q172">
         <v>7.9728455778457601</v>
       </c>
-      <c r="R172" s="7">
+      <c r="R172">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S172" s="7">
+      <c r="S172">
         <v>15.616747914541399</v>
       </c>
-      <c r="T172" s="7">
+      <c r="T172">
         <v>0</v>
       </c>
     </row>
@@ -11342,19 +11347,19 @@
       <c r="O173">
         <v>1</v>
       </c>
-      <c r="P173" s="7">
+      <c r="P173">
         <v>45.643479971667396</v>
       </c>
-      <c r="Q173" s="7">
+      <c r="Q173">
         <v>7.0338215431217002</v>
       </c>
-      <c r="R173" s="7">
+      <c r="R173">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S173" s="7">
+      <c r="S173">
         <v>15.616747914541399</v>
       </c>
-      <c r="T173" s="7">
+      <c r="T173">
         <v>0</v>
       </c>
     </row>
@@ -11404,19 +11409,19 @@
       <c r="O174">
         <v>1</v>
       </c>
-      <c r="P174" s="7">
+      <c r="P174">
         <v>45.643479971667396</v>
       </c>
-      <c r="Q174" s="7">
+      <c r="Q174">
         <v>9.1267808542596107</v>
       </c>
-      <c r="R174" s="7">
+      <c r="R174">
         <v>8.6033978723845408</v>
       </c>
-      <c r="S174" s="7">
+      <c r="S174">
         <v>15.616747914541399</v>
       </c>
-      <c r="T174" s="7">
+      <c r="T174">
         <v>0</v>
       </c>
     </row>
@@ -11466,19 +11471,19 @@
       <c r="O175">
         <v>1</v>
       </c>
-      <c r="P175" s="7">
+      <c r="P175">
         <v>45.643479971667396</v>
       </c>
-      <c r="Q175" s="7">
+      <c r="Q175">
         <v>9.1267808542596107</v>
       </c>
-      <c r="R175" s="7">
+      <c r="R175">
         <v>7.8508729664793</v>
       </c>
-      <c r="S175" s="7">
+      <c r="S175">
         <v>15.616747914541399</v>
       </c>
-      <c r="T175" s="7">
+      <c r="T175">
         <v>0</v>
       </c>
     </row>
@@ -11528,19 +11533,19 @@
       <c r="O176">
         <v>1</v>
       </c>
-      <c r="P176" s="7">
+      <c r="P176">
         <v>46.779725563476298</v>
       </c>
-      <c r="Q176" s="7">
+      <c r="Q176">
         <v>8.79065467250404</v>
       </c>
-      <c r="R176" s="7">
+      <c r="R176">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S176" s="7">
+      <c r="S176">
         <v>13.0139565954512</v>
       </c>
-      <c r="T176" s="7">
+      <c r="T176">
         <v>0</v>
       </c>
     </row>
@@ -11590,19 +11595,19 @@
       <c r="O177">
         <v>1</v>
       </c>
-      <c r="P177" s="7">
+      <c r="P177">
         <v>47.930896100825997</v>
       </c>
-      <c r="Q177" s="7">
+      <c r="Q177">
         <v>8.7335272990178208</v>
       </c>
-      <c r="R177" s="7">
+      <c r="R177">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S177" s="7">
+      <c r="S177">
         <v>10.411165276360901</v>
       </c>
-      <c r="T177" s="7">
+      <c r="T177">
         <v>0</v>
       </c>
     </row>
@@ -11652,19 +11657,19 @@
       <c r="O178">
         <v>1</v>
       </c>
-      <c r="P178" s="7">
+      <c r="P178">
         <v>40.409459735853801</v>
       </c>
-      <c r="Q178" s="7">
+      <c r="Q178">
         <v>9.1625459379214593</v>
       </c>
-      <c r="R178" s="7">
+      <c r="R178">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S178" s="7">
+      <c r="S178">
         <v>15.616747914541399</v>
       </c>
-      <c r="T178" s="7">
+      <c r="T178">
         <v>0</v>
       </c>
     </row>
@@ -11714,19 +11719,19 @@
       <c r="O179">
         <v>1</v>
       </c>
-      <c r="P179" s="7">
+      <c r="P179">
         <v>35.522675337086902</v>
       </c>
-      <c r="Q179" s="7">
+      <c r="Q179">
         <v>9.3657781932351902</v>
       </c>
-      <c r="R179" s="7">
+      <c r="R179">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S179" s="7">
+      <c r="S179">
         <v>15.616747914541399</v>
       </c>
-      <c r="T179" s="7">
+      <c r="T179">
         <v>0</v>
       </c>
     </row>
@@ -11776,19 +11781,19 @@
       <c r="O180">
         <v>1</v>
       </c>
-      <c r="P180" s="7">
+      <c r="P180">
         <v>32.915527674564302</v>
       </c>
-      <c r="Q180" s="7">
+      <c r="Q180">
         <v>9.4731099976075903</v>
       </c>
-      <c r="R180" s="7">
+      <c r="R180">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S180" s="7">
+      <c r="S180">
         <v>15.616747914541399</v>
       </c>
-      <c r="T180" s="7">
+      <c r="T180">
         <v>0</v>
       </c>
     </row>
@@ -11838,19 +11843,19 @@
       <c r="O181">
         <v>1</v>
       </c>
-      <c r="P181" s="7">
+      <c r="P181">
         <v>36.101359848737999</v>
       </c>
-      <c r="Q181" s="7">
+      <c r="Q181">
         <v>7.7353505144843604</v>
       </c>
-      <c r="R181" s="7">
+      <c r="R181">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S181" s="7">
+      <c r="S181">
         <v>15.616747914541399</v>
       </c>
-      <c r="T181" s="7">
+      <c r="T181">
         <v>0</v>
       </c>
     </row>
@@ -11900,19 +11905,19 @@
       <c r="O182">
         <v>1</v>
       </c>
-      <c r="P182" s="7">
+      <c r="P182">
         <v>35.421626014960303</v>
       </c>
-      <c r="Q182" s="7">
+      <c r="Q182">
         <v>7.7538192522495004</v>
       </c>
-      <c r="R182" s="7">
+      <c r="R182">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S182" s="7">
+      <c r="S182">
         <v>15.616747914541399</v>
       </c>
-      <c r="T182" s="7">
+      <c r="T182">
         <v>0</v>
       </c>
     </row>
@@ -11962,19 +11967,19 @@
       <c r="O183">
         <v>1</v>
       </c>
-      <c r="P183" s="7">
+      <c r="P183">
         <v>32.577607885767002</v>
       </c>
-      <c r="Q183" s="7">
+      <c r="Q183">
         <v>7.7538192522495004</v>
       </c>
-      <c r="R183" s="7">
+      <c r="R183">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S183" s="7">
+      <c r="S183">
         <v>15.616747914541399</v>
       </c>
-      <c r="T183" s="7">
+      <c r="T183">
         <v>0</v>
       </c>
     </row>
@@ -12024,19 +12029,19 @@
       <c r="O184">
         <v>1</v>
       </c>
-      <c r="P184" s="7">
+      <c r="P184">
         <v>32.112171089514199</v>
       </c>
-      <c r="Q184" s="7">
+      <c r="Q184">
         <v>7.7538192522495004</v>
       </c>
-      <c r="R184" s="7">
+      <c r="R184">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S184" s="7">
+      <c r="S184">
         <v>15.616747914541399</v>
       </c>
-      <c r="T184" s="7">
+      <c r="T184">
         <v>0</v>
       </c>
     </row>
@@ -12086,19 +12091,19 @@
       <c r="O185">
         <v>1</v>
       </c>
-      <c r="P185" s="7">
+      <c r="P185">
         <v>32.112171089514199</v>
       </c>
-      <c r="Q185" s="7">
+      <c r="Q185">
         <v>6.7734729828491904</v>
       </c>
-      <c r="R185" s="7">
+      <c r="R185">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S185" s="7">
+      <c r="S185">
         <v>15.616747914541399</v>
       </c>
-      <c r="T185" s="7">
+      <c r="T185">
         <v>0</v>
       </c>
     </row>
@@ -12148,19 +12153,19 @@
       <c r="O186">
         <v>1</v>
       </c>
-      <c r="P186" s="7">
+      <c r="P186">
         <v>32.112171089514199</v>
       </c>
-      <c r="Q186" s="7">
+      <c r="Q186">
         <v>6.7734729828491904</v>
       </c>
-      <c r="R186" s="7">
+      <c r="R186">
         <v>8.6033978723845408</v>
       </c>
-      <c r="S186" s="7">
+      <c r="S186">
         <v>15.616747914541399</v>
       </c>
-      <c r="T186" s="7">
+      <c r="T186">
         <v>0</v>
       </c>
     </row>
@@ -12210,19 +12215,19 @@
       <c r="O187">
         <v>1</v>
       </c>
-      <c r="P187" s="7">
+      <c r="P187">
         <v>33.136261487453297</v>
       </c>
-      <c r="Q187" s="7">
+      <c r="Q187">
         <v>6.4669888844253398</v>
       </c>
-      <c r="R187" s="7">
+      <c r="R187">
         <v>8.6033978723845408</v>
       </c>
-      <c r="S187" s="7">
+      <c r="S187">
         <v>13.0139565954512</v>
       </c>
-      <c r="T187" s="7">
+      <c r="T187">
         <v>0</v>
       </c>
     </row>
@@ -12272,19 +12277,19 @@
       <c r="O188">
         <v>1</v>
       </c>
-      <c r="P188" s="7">
+      <c r="P188">
         <v>46.779725563476298</v>
       </c>
-      <c r="Q188" s="7">
+      <c r="Q188">
         <v>8.79065467250404</v>
       </c>
-      <c r="R188" s="7">
+      <c r="R188">
         <v>8.6033978723845408</v>
       </c>
-      <c r="S188" s="7">
+      <c r="S188">
         <v>13.0139565954512</v>
       </c>
-      <c r="T188" s="7">
+      <c r="T188">
         <v>0</v>
       </c>
     </row>
@@ -12334,19 +12339,19 @@
       <c r="O189">
         <v>1</v>
       </c>
-      <c r="P189" s="7">
+      <c r="P189">
         <v>46.779725563476298</v>
       </c>
-      <c r="Q189" s="7">
+      <c r="Q189">
         <v>7.6792171688150699</v>
       </c>
-      <c r="R189" s="7">
+      <c r="R189">
         <v>8.6033978723845408</v>
       </c>
-      <c r="S189" s="7">
+      <c r="S189">
         <v>13.0139565954512</v>
       </c>
-      <c r="T189" s="7">
+      <c r="T189">
         <v>0</v>
       </c>
     </row>
@@ -12396,19 +12401,19 @@
       <c r="O190">
         <v>1</v>
       </c>
-      <c r="P190" s="7">
+      <c r="P190">
         <v>46.177733754859197</v>
       </c>
-      <c r="Q190" s="7">
+      <c r="Q190">
         <v>7.6792171688150699</v>
       </c>
-      <c r="R190" s="7">
+      <c r="R190">
         <v>8.6033978723845408</v>
       </c>
-      <c r="S190" s="7">
+      <c r="S190">
         <v>13.0139565954512</v>
       </c>
-      <c r="T190" s="7">
+      <c r="T190">
         <v>0</v>
       </c>
     </row>
@@ -12458,19 +12463,19 @@
       <c r="O191">
         <v>1</v>
       </c>
-      <c r="P191" s="7">
+      <c r="P191">
         <v>42.397033322036599</v>
       </c>
-      <c r="Q191" s="7">
+      <c r="Q191">
         <v>7.6792171688150699</v>
       </c>
-      <c r="R191" s="7">
+      <c r="R191">
         <v>8.6033978723845408</v>
       </c>
-      <c r="S191" s="7">
+      <c r="S191">
         <v>13.0139565954512</v>
       </c>
-      <c r="T191" s="7">
+      <c r="T191">
         <v>0</v>
       </c>
     </row>
@@ -12520,19 +12525,19 @@
       <c r="O192">
         <v>1</v>
       </c>
-      <c r="P192" s="7">
+      <c r="P192">
         <v>35.201889872973702</v>
       </c>
-      <c r="Q192" s="7">
+      <c r="Q192">
         <v>8.8656628345714203</v>
       </c>
-      <c r="R192" s="7">
+      <c r="R192">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S192" s="7">
+      <c r="S192">
         <v>15.616747914541399</v>
       </c>
-      <c r="T192" s="7">
+      <c r="T192">
         <v>0</v>
       </c>
     </row>
@@ -12582,19 +12587,19 @@
       <c r="O193">
         <v>1</v>
       </c>
-      <c r="P193" s="7">
+      <c r="P193">
         <v>25.677309818762801</v>
       </c>
-      <c r="Q193" s="7">
+      <c r="Q193">
         <v>9.5069408168654608</v>
       </c>
-      <c r="R193" s="7">
+      <c r="R193">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S193" s="7">
+      <c r="S193">
         <v>15.616747914541399</v>
       </c>
-      <c r="T193" s="7">
+      <c r="T193">
         <v>0</v>
       </c>
     </row>
@@ -12644,19 +12649,19 @@
       <c r="O194">
         <v>1</v>
       </c>
-      <c r="P194" s="7">
+      <c r="P194">
         <v>21.040483445988901</v>
       </c>
-      <c r="Q194" s="7">
+      <c r="Q194">
         <v>9.8951956233713805</v>
       </c>
-      <c r="R194" s="7">
+      <c r="R194">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S194" s="7">
+      <c r="S194">
         <v>15.616747914541399</v>
       </c>
-      <c r="T194" s="7">
+      <c r="T194">
         <v>0</v>
       </c>
     </row>
@@ -12706,19 +12711,19 @@
       <c r="O195">
         <v>1</v>
       </c>
-      <c r="P195" s="7">
+      <c r="P195">
         <v>26.146080666773098</v>
       </c>
-      <c r="Q195" s="7">
+      <c r="Q195">
         <v>6.3537903001156799</v>
       </c>
-      <c r="R195" s="7">
+      <c r="R195">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S195" s="7">
+      <c r="S195">
         <v>15.616747914541399</v>
       </c>
-      <c r="T195" s="7">
+      <c r="T195">
         <v>0</v>
       </c>
     </row>
@@ -12768,19 +12773,19 @@
       <c r="O196">
         <v>1</v>
       </c>
-      <c r="P196" s="7">
+      <c r="P196">
         <v>24.5937135047573</v>
       </c>
-      <c r="Q196" s="7">
+      <c r="Q196">
         <v>6.4048864437821003</v>
       </c>
-      <c r="R196" s="7">
+      <c r="R196">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S196" s="7">
+      <c r="S196">
         <v>15.616747914541399</v>
       </c>
-      <c r="T196" s="7">
+      <c r="T196">
         <v>0</v>
       </c>
     </row>
@@ -12830,19 +12835,19 @@
       <c r="O197">
         <v>1</v>
       </c>
-      <c r="P197" s="7">
+      <c r="P197">
         <v>21.010404713210999</v>
       </c>
-      <c r="Q197" s="7">
+      <c r="Q197">
         <v>6.4048864437821003</v>
       </c>
-      <c r="R197" s="7">
+      <c r="R197">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S197" s="7">
+      <c r="S197">
         <v>15.616747914541399</v>
       </c>
-      <c r="T197" s="7">
+      <c r="T197">
         <v>0</v>
       </c>
     </row>
@@ -12892,19 +12897,19 @@
       <c r="O198">
         <v>1</v>
       </c>
-      <c r="P198" s="7">
+      <c r="P198">
         <v>20.409722199774201</v>
       </c>
-      <c r="Q198" s="7">
+      <c r="Q198">
         <v>6.4048864437821003</v>
       </c>
-      <c r="R198" s="7">
+      <c r="R198">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S198" s="7">
+      <c r="S198">
         <v>15.616747914541399</v>
       </c>
-      <c r="T198" s="7">
+      <c r="T198">
         <v>0</v>
       </c>
     </row>
@@ -12954,19 +12959,19 @@
       <c r="O199">
         <v>1</v>
       </c>
-      <c r="P199" s="7">
+      <c r="P199">
         <v>20.409722199774201</v>
       </c>
-      <c r="Q199" s="7">
+      <c r="Q199">
         <v>4.9361137260676902</v>
       </c>
-      <c r="R199" s="7">
+      <c r="R199">
         <v>9.5155492734817901</v>
       </c>
-      <c r="S199" s="7">
+      <c r="S199">
         <v>15.616747914541399</v>
       </c>
-      <c r="T199" s="7">
+      <c r="T199">
         <v>0</v>
       </c>
     </row>
@@ -13016,19 +13021,19 @@
       <c r="O200">
         <v>1</v>
       </c>
-      <c r="P200" s="7">
+      <c r="P200">
         <v>20.409722199774201</v>
       </c>
-      <c r="Q200" s="7">
+      <c r="Q200">
         <v>4.9361137260676902</v>
       </c>
-      <c r="R200" s="7">
+      <c r="R200">
         <v>7.8508729664793</v>
       </c>
-      <c r="S200" s="7">
+      <c r="S200">
         <v>15.616747914541399</v>
       </c>
-      <c r="T200" s="7">
+      <c r="T200">
         <v>0</v>
       </c>
     </row>
@@ -13078,19 +13083,19 @@
       <c r="O201">
         <v>1</v>
       </c>
-      <c r="P201" s="7">
+      <c r="P201">
         <v>22.2571278736553</v>
       </c>
-      <c r="Q201" s="7">
+      <c r="Q201">
         <v>4.3711510198759402</v>
       </c>
-      <c r="R201" s="7">
+      <c r="R201">
         <v>7.8508729664793</v>
       </c>
-      <c r="S201" s="7">
+      <c r="S201">
         <v>10.411165276360901</v>
       </c>
-      <c r="T201" s="7">
+      <c r="T201">
         <v>0</v>
       </c>
     </row>
@@ -13140,19 +13145,19 @@
       <c r="O202">
         <v>1</v>
       </c>
-      <c r="P202" s="7">
+      <c r="P202">
         <v>47.930896100825997</v>
       </c>
-      <c r="Q202" s="7">
+      <c r="Q202">
         <v>8.7335272990178208</v>
       </c>
-      <c r="R202" s="7">
+      <c r="R202">
         <v>7.8508729664793</v>
       </c>
-      <c r="S202" s="7">
+      <c r="S202">
         <v>10.411165276360901</v>
       </c>
-      <c r="T202" s="7">
+      <c r="T202">
         <v>0</v>
       </c>
     </row>
@@ -13202,19 +13207,19 @@
       <c r="O203">
         <v>1</v>
       </c>
-      <c r="P203" s="7">
+      <c r="P203">
         <v>47.930896100825997</v>
       </c>
-      <c r="Q203" s="7">
+      <c r="Q203">
         <v>6.7307491484911299</v>
       </c>
-      <c r="R203" s="7">
+      <c r="R203">
         <v>7.8508729664793</v>
       </c>
-      <c r="S203" s="7">
+      <c r="S203">
         <v>10.411165276360901</v>
       </c>
-      <c r="T203" s="7">
+      <c r="T203">
         <v>0</v>
       </c>
     </row>
@@ -13264,19 +13269,19 @@
       <c r="O204">
         <v>1</v>
       </c>
-      <c r="P204" s="7">
+      <c r="P204">
         <v>46.806729745176902</v>
       </c>
-      <c r="Q204" s="7">
+      <c r="Q204">
         <v>6.7307491484911299</v>
       </c>
-      <c r="R204" s="7">
+      <c r="R204">
         <v>7.8508729664793</v>
       </c>
-      <c r="S204" s="7">
+      <c r="S204">
         <v>10.411165276360901</v>
       </c>
-      <c r="T204" s="7">
+      <c r="T204">
         <v>0</v>
       </c>
     </row>
@@ -13326,19 +13331,19 @@
       <c r="O205">
         <v>1</v>
       </c>
-      <c r="P205" s="7">
+      <c r="P205">
         <v>39.706225169168597</v>
       </c>
-      <c r="Q205" s="7">
+      <c r="Q205">
         <v>6.7307491484911299</v>
       </c>
-      <c r="R205" s="7">
+      <c r="R205">
         <v>7.8508729664793</v>
       </c>
-      <c r="S205" s="7">
+      <c r="S205">
         <v>10.411165276360901</v>
       </c>
-      <c r="T205" s="7">
+      <c r="T205">
         <v>0</v>
       </c>
     </row>
@@ -13391,7 +13396,7 @@
         <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
         <v>12</v>
@@ -24057,11 +24062,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CB6D94-8CFE-4DE6-A2F6-7231EBBCCF77}">
   <dimension ref="A1:V253"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="23.625" customWidth="1"/>
+    <col min="10" max="10" width="24.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -24086,16 +24097,16 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
         <v>21</v>
       </c>
       <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
         <v>32</v>
-      </c>
-      <c r="K1" t="s">
-        <v>33</v>
       </c>
       <c r="L1" t="s">
         <v>22</v>
@@ -41306,7 +41317,7 @@
         <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
         <v>22</v>
@@ -52001,7 +52012,7 @@
         <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
         <v>22</v>
@@ -62708,7 +62719,7 @@
         <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
         <v>22</v>
